--- a/DIMAANO, LEOVIGILDA ANGCAYA.xlsx
+++ b/DIMAANO, LEOVIGILDA ANGCAYA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C449E4A0-5891-44D3-9DD3-4B70CD8F778B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE4B102-38E5-4C1C-8DEA-0A068C13B697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="93">
   <si>
     <t>PERIOD</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>12/6, 20/2022</t>
+  </si>
+  <si>
+    <t>12/22,23/2022</t>
   </si>
 </sst>
 </file>
@@ -1341,9 +1344,9 @@
   <dimension ref="A2:K264"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A127" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A124" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K135" sqref="K135"/>
+      <selection pane="bottomLeft" activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1502,7 +1505,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>77.292000000000002</v>
+        <v>75.292000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4133,9 +4136,13 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="41"/>
-      <c r="B135" s="20"/>
+      <c r="B135" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C135" s="13"/>
-      <c r="D135" s="40"/>
+      <c r="D135" s="40">
+        <v>2</v>
+      </c>
       <c r="E135" s="49"/>
       <c r="F135" s="20"/>
       <c r="G135" s="13" t="str">
@@ -4145,7 +4152,9 @@
       <c r="H135" s="40"/>
       <c r="I135" s="49"/>
       <c r="J135" s="11"/>
-      <c r="K135" s="20"/>
+      <c r="K135" s="20" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="41"/>

--- a/DIMAANO, LEOVIGILDA ANGCAYA.xlsx
+++ b/DIMAANO, LEOVIGILDA ANGCAYA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="98">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1266,7 +1266,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{68AD954A-7DD0-44FF-AB11-86F01056025D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68AD954A-7DD0-44FF-AB11-86F01056025D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1309,7 +1309,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9734F851-CE56-4EDF-9EF1-953EE5DBE251}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9734F851-CE56-4EDF-9EF1-953EE5DBE251}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1373,7 +1373,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F20BBBF6-75FF-4CBE-ACA6-861D3D1E7806}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F20BBBF6-75FF-4CBE-ACA6-861D3D1E7806}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1433,7 +1433,7 @@
         <xdr:cNvPr id="5" name="Oval 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D946256-EBA3-4C5E-AE90-878D5CCD71A8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D946256-EBA3-4C5E-AE90-878D5CCD71A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1499,7 +1499,7 @@
         <xdr:cNvPr id="6" name="Arrow: Left-Right 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E3A2BDE-476B-4DD9-9E27-446EC9F2235E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E3A2BDE-476B-4DD9-9E27-446EC9F2235E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,7 +1562,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4DBE5C18-7CCB-4DF4-B046-F8228CD70B27}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DBE5C18-7CCB-4DF4-B046-F8228CD70B27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1660,7 +1660,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82624F04-EE7B-4FCB-9116-9D70AD30C87C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82624F04-EE7B-4FCB-9116-9D70AD30C87C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1719,7 +1719,7 @@
         <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C14E1DB5-CA39-407E-9D7F-F15CAEC7010D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C14E1DB5-CA39-407E-9D7F-F15CAEC7010D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1784,7 +1784,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F62F5BC-A343-4F32-BDC2-D47ECC0CCE92}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F62F5BC-A343-4F32-BDC2-D47ECC0CCE92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1827,7 +1827,7 @@
         <xdr:cNvPr id="11" name="TextBox 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2DB27CA2-2552-44E6-A70A-046BB421FD07}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DB27CA2-2552-44E6-A70A-046BB421FD07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1902,7 +1902,7 @@
         <xdr:cNvPr id="12" name="TextBox 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8909640B-E004-43FC-ABD8-AE5736852DDE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8909640B-E004-43FC-ABD8-AE5736852DDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2088,7 +2088,7 @@
         <xdr:cNvPr id="13" name="Oval 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E20CC74B-D16E-44AB-8CBC-F2E8E6BAF9B2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E20CC74B-D16E-44AB-8CBC-F2E8E6BAF9B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2154,7 +2154,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0366E899-0AE8-4DB2-AF27-0D5D4E430ECE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0366E899-0AE8-4DB2-AF27-0D5D4E430ECE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2212,7 +2212,7 @@
         <xdr:cNvPr id="15" name="Oval 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3DB812C1-23F7-4585-97FF-0895CE7B771F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DB812C1-23F7-4585-97FF-0895CE7B771F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2278,7 +2278,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F12B1D48-77ED-4828-9B15-4F15CF7CC202}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12B1D48-77ED-4828-9B15-4F15CF7CC202}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2334,7 +2334,7 @@
         <xdr:cNvPr id="17" name="TextBox 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{889682BF-D44A-4475-9B2D-5ED8A675DCF4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{889682BF-D44A-4475-9B2D-5ED8A675DCF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2409,7 +2409,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DFCE4D25-2139-496B-845E-126AABE113D0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFCE4D25-2139-496B-845E-126AABE113D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2452,7 +2452,7 @@
         <xdr:cNvPr id="19" name="Oval 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F84D279C-7E4C-4B53-85A5-A21A8FE39F8B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F84D279C-7E4C-4B53-85A5-A21A8FE39F8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2518,7 +2518,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2129D637-A52B-4CD3-B274-97910BC7E60D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2129D637-A52B-4CD3-B274-97910BC7E60D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2574,7 +2574,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D6AFE9D-0D0D-4B8C-AC0C-2BD2F4978AA4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D6AFE9D-0D0D-4B8C-AC0C-2BD2F4978AA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3073,7 +3073,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3585" topLeftCell="A64" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="J80" sqref="J80"/>
+      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3232,7 +3232,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>51.25</v>
+        <v>53.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3242,7 +3242,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>76.25</v>
+        <v>77.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4646,13 +4646,15 @@
         <v>44958</v>
       </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="40"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="40"/>
       <c r="I77" s="9"/>
@@ -4664,18 +4666,24 @@
         <v>44986</v>
       </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="40"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H78" s="40"/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H78" s="40">
+        <v>1</v>
+      </c>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20"/>
+      <c r="K78" s="48">
+        <v>44988</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="41">
@@ -7963,9 +7971,9 @@
   <dimension ref="A2:K200"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4785" topLeftCell="A64" activePane="bottomLeft"/>
+      <pane ySplit="4785" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8134,7 +8142,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -9642,8 +9650,12 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="41"/>
-      <c r="B77" s="20"/>
+      <c r="A77" s="41">
+        <v>44986</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C77" s="13"/>
       <c r="D77" s="40"/>
       <c r="E77" s="49"/>
@@ -9652,14 +9664,20 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H77" s="40"/>
-      <c r="I77" s="49"/>
+      <c r="H77" s="40">
+        <v>1</v>
+      </c>
+      <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="20"/>
+      <c r="K77" s="48">
+        <v>44988</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="41"/>
-      <c r="B78" s="20"/>
+      <c r="B78" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C78" s="13"/>
       <c r="D78" s="40"/>
       <c r="E78" s="49"/>
@@ -9668,14 +9686,20 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H78" s="40"/>
+      <c r="H78" s="40">
+        <v>1</v>
+      </c>
       <c r="I78" s="49"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20"/>
+      <c r="K78" s="48">
+        <v>44992</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="41"/>
-      <c r="B79" s="20"/>
+      <c r="B79" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C79" s="13"/>
       <c r="D79" s="40"/>
       <c r="E79" s="49"/>
@@ -9687,7 +9711,9 @@
       <c r="H79" s="40"/>
       <c r="I79" s="49"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20"/>
+      <c r="K79" s="48">
+        <v>45006</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="41"/>
@@ -11627,17 +11653,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">

--- a/DIMAANO, LEOVIGILDA ANGCAYA.xlsx
+++ b/DIMAANO, LEOVIGILDA ANGCAYA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="98">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1266,7 +1266,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68AD954A-7DD0-44FF-AB11-86F01056025D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{68AD954A-7DD0-44FF-AB11-86F01056025D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1309,7 +1309,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9734F851-CE56-4EDF-9EF1-953EE5DBE251}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9734F851-CE56-4EDF-9EF1-953EE5DBE251}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1373,7 +1373,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F20BBBF6-75FF-4CBE-ACA6-861D3D1E7806}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F20BBBF6-75FF-4CBE-ACA6-861D3D1E7806}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1433,7 +1433,7 @@
         <xdr:cNvPr id="5" name="Oval 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D946256-EBA3-4C5E-AE90-878D5CCD71A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D946256-EBA3-4C5E-AE90-878D5CCD71A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1499,7 +1499,7 @@
         <xdr:cNvPr id="6" name="Arrow: Left-Right 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E3A2BDE-476B-4DD9-9E27-446EC9F2235E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E3A2BDE-476B-4DD9-9E27-446EC9F2235E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,7 +1562,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DBE5C18-7CCB-4DF4-B046-F8228CD70B27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4DBE5C18-7CCB-4DF4-B046-F8228CD70B27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1660,7 +1660,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82624F04-EE7B-4FCB-9116-9D70AD30C87C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82624F04-EE7B-4FCB-9116-9D70AD30C87C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1719,7 +1719,7 @@
         <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C14E1DB5-CA39-407E-9D7F-F15CAEC7010D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C14E1DB5-CA39-407E-9D7F-F15CAEC7010D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1784,7 +1784,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F62F5BC-A343-4F32-BDC2-D47ECC0CCE92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F62F5BC-A343-4F32-BDC2-D47ECC0CCE92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1827,7 +1827,7 @@
         <xdr:cNvPr id="11" name="TextBox 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DB27CA2-2552-44E6-A70A-046BB421FD07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2DB27CA2-2552-44E6-A70A-046BB421FD07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1902,7 +1902,7 @@
         <xdr:cNvPr id="12" name="TextBox 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8909640B-E004-43FC-ABD8-AE5736852DDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8909640B-E004-43FC-ABD8-AE5736852DDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2088,7 +2088,7 @@
         <xdr:cNvPr id="13" name="Oval 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E20CC74B-D16E-44AB-8CBC-F2E8E6BAF9B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E20CC74B-D16E-44AB-8CBC-F2E8E6BAF9B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2154,7 +2154,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0366E899-0AE8-4DB2-AF27-0D5D4E430ECE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0366E899-0AE8-4DB2-AF27-0D5D4E430ECE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2212,7 +2212,7 @@
         <xdr:cNvPr id="15" name="Oval 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DB812C1-23F7-4585-97FF-0895CE7B771F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3DB812C1-23F7-4585-97FF-0895CE7B771F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2278,7 +2278,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12B1D48-77ED-4828-9B15-4F15CF7CC202}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F12B1D48-77ED-4828-9B15-4F15CF7CC202}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2334,7 +2334,7 @@
         <xdr:cNvPr id="17" name="TextBox 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{889682BF-D44A-4475-9B2D-5ED8A675DCF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{889682BF-D44A-4475-9B2D-5ED8A675DCF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2409,7 +2409,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFCE4D25-2139-496B-845E-126AABE113D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DFCE4D25-2139-496B-845E-126AABE113D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2452,7 +2452,7 @@
         <xdr:cNvPr id="19" name="Oval 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F84D279C-7E4C-4B53-85A5-A21A8FE39F8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F84D279C-7E4C-4B53-85A5-A21A8FE39F8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2518,7 +2518,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2129D637-A52B-4CD3-B274-97910BC7E60D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2129D637-A52B-4CD3-B274-97910BC7E60D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2574,7 +2574,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D6AFE9D-0D0D-4B8C-AC0C-2BD2F4978AA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D6AFE9D-0D0D-4B8C-AC0C-2BD2F4978AA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3070,10 +3070,10 @@
   </sheetPr>
   <dimension ref="A2:K269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3585" topLeftCell="A64" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
+      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3242,7 +3242,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>77.75</v>
+        <v>78.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4676,14 +4676,10 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H78" s="40">
-        <v>1</v>
-      </c>
+      <c r="H78" s="40"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="48">
-        <v>44988</v>
-      </c>
+      <c r="K78" s="48"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="41">
@@ -7970,10 +7966,10 @@
   </sheetPr>
   <dimension ref="A2:K200"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4785" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8142,7 +8138,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -9717,7 +9713,9 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="41"/>
-      <c r="B80" s="20"/>
+      <c r="B80" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C80" s="13"/>
       <c r="D80" s="40"/>
       <c r="E80" s="49"/>
@@ -9726,10 +9724,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H80" s="40"/>
+      <c r="H80" s="40">
+        <v>1</v>
+      </c>
       <c r="I80" s="49"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20"/>
+      <c r="K80" s="48">
+        <v>45013</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="41"/>
@@ -11653,17 +11655,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">

--- a/DIMAANO, LEOVIGILDA ANGCAYA.xlsx
+++ b/DIMAANO, LEOVIGILDA ANGCAYA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534A93A7-40CB-49EB-8F94-FD42078614F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="5" r:id="rId1"/>
@@ -29,7 +30,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -338,7 +339,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1266,7 +1267,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{68AD954A-7DD0-44FF-AB11-86F01056025D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68AD954A-7DD0-44FF-AB11-86F01056025D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1309,7 +1310,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9734F851-CE56-4EDF-9EF1-953EE5DBE251}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9734F851-CE56-4EDF-9EF1-953EE5DBE251}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1373,7 +1374,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F20BBBF6-75FF-4CBE-ACA6-861D3D1E7806}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F20BBBF6-75FF-4CBE-ACA6-861D3D1E7806}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1433,7 +1434,7 @@
         <xdr:cNvPr id="5" name="Oval 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D946256-EBA3-4C5E-AE90-878D5CCD71A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D946256-EBA3-4C5E-AE90-878D5CCD71A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1499,7 +1500,7 @@
         <xdr:cNvPr id="6" name="Arrow: Left-Right 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E3A2BDE-476B-4DD9-9E27-446EC9F2235E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E3A2BDE-476B-4DD9-9E27-446EC9F2235E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,7 +1563,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4DBE5C18-7CCB-4DF4-B046-F8228CD70B27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DBE5C18-7CCB-4DF4-B046-F8228CD70B27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1660,7 +1661,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82624F04-EE7B-4FCB-9116-9D70AD30C87C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82624F04-EE7B-4FCB-9116-9D70AD30C87C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1719,7 +1720,7 @@
         <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C14E1DB5-CA39-407E-9D7F-F15CAEC7010D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C14E1DB5-CA39-407E-9D7F-F15CAEC7010D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1784,7 +1785,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F62F5BC-A343-4F32-BDC2-D47ECC0CCE92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F62F5BC-A343-4F32-BDC2-D47ECC0CCE92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1827,7 +1828,7 @@
         <xdr:cNvPr id="11" name="TextBox 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2DB27CA2-2552-44E6-A70A-046BB421FD07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DB27CA2-2552-44E6-A70A-046BB421FD07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1902,7 +1903,7 @@
         <xdr:cNvPr id="12" name="TextBox 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8909640B-E004-43FC-ABD8-AE5736852DDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8909640B-E004-43FC-ABD8-AE5736852DDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2088,7 +2089,7 @@
         <xdr:cNvPr id="13" name="Oval 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E20CC74B-D16E-44AB-8CBC-F2E8E6BAF9B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E20CC74B-D16E-44AB-8CBC-F2E8E6BAF9B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2154,7 +2155,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0366E899-0AE8-4DB2-AF27-0D5D4E430ECE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0366E899-0AE8-4DB2-AF27-0D5D4E430ECE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2212,7 +2213,7 @@
         <xdr:cNvPr id="15" name="Oval 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3DB812C1-23F7-4585-97FF-0895CE7B771F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DB812C1-23F7-4585-97FF-0895CE7B771F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2278,7 +2279,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F12B1D48-77ED-4828-9B15-4F15CF7CC202}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12B1D48-77ED-4828-9B15-4F15CF7CC202}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2334,7 +2335,7 @@
         <xdr:cNvPr id="17" name="TextBox 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{889682BF-D44A-4475-9B2D-5ED8A675DCF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{889682BF-D44A-4475-9B2D-5ED8A675DCF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2409,7 +2410,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DFCE4D25-2139-496B-845E-126AABE113D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFCE4D25-2139-496B-845E-126AABE113D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2452,7 +2453,7 @@
         <xdr:cNvPr id="19" name="Oval 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F84D279C-7E4C-4B53-85A5-A21A8FE39F8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F84D279C-7E4C-4B53-85A5-A21A8FE39F8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2518,7 +2519,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2129D637-A52B-4CD3-B274-97910BC7E60D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2129D637-A52B-4CD3-B274-97910BC7E60D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2574,7 +2575,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D6AFE9D-0D0D-4B8C-AC0C-2BD2F4978AA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D6AFE9D-0D0D-4B8C-AC0C-2BD2F4978AA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2662,7 +2663,7 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
@@ -2691,25 +2692,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K269" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K269" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2721,25 +2722,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K200" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K200" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3046,7 +3047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3056,7 +3057,7 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3064,34 +3065,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K269"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3585" topLeftCell="A64" activePane="bottomLeft"/>
+      <pane ySplit="3588" topLeftCell="A64" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
       <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3112,7 +3113,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3130,7 +3131,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3150,7 +3151,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3158,7 +3159,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3171,7 +3172,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3188,7 +3189,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3223,7 +3224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3247,7 +3248,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -3267,7 +3268,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="41">
         <v>43101</v>
       </c>
@@ -3287,7 +3288,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="48"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="41">
         <v>43132</v>
       </c>
@@ -3313,7 +3314,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="41">
         <v>43160</v>
       </c>
@@ -3333,7 +3334,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="41">
         <v>43191</v>
       </c>
@@ -3353,7 +3354,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="41">
         <v>43221</v>
       </c>
@@ -3373,7 +3374,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="48"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -3393,7 +3394,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="41">
         <v>43282</v>
       </c>
@@ -3413,7 +3414,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="41">
         <v>43313</v>
       </c>
@@ -3433,7 +3434,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <v>43344</v>
       </c>
@@ -3453,7 +3454,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="48"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <v>43374</v>
       </c>
@@ -3473,7 +3474,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="48"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <v>43405</v>
       </c>
@@ -3493,7 +3494,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <v>43435</v>
       </c>
@@ -3513,7 +3514,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>64</v>
       </c>
@@ -3531,7 +3532,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <v>43466</v>
       </c>
@@ -3551,7 +3552,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="41">
         <v>43497</v>
       </c>
@@ -3571,7 +3572,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="41">
         <v>43525</v>
       </c>
@@ -3591,7 +3592,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="41">
         <v>43556</v>
       </c>
@@ -3611,7 +3612,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="48"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="41">
         <v>43586</v>
       </c>
@@ -3631,7 +3632,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="41">
         <v>43617</v>
       </c>
@@ -3651,7 +3652,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="41">
         <v>43647</v>
       </c>
@@ -3671,7 +3672,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="48"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="41">
         <v>43678</v>
       </c>
@@ -3697,7 +3698,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="41">
         <v>43709</v>
       </c>
@@ -3723,7 +3724,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="41">
         <v>43739</v>
       </c>
@@ -3749,7 +3750,7 @@
         <v>43762</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="41">
         <v>43770</v>
       </c>
@@ -3769,7 +3770,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="41">
         <v>43800</v>
       </c>
@@ -3795,7 +3796,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
         <v>66</v>
       </c>
@@ -3813,7 +3814,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="41">
         <v>43831</v>
       </c>
@@ -3833,7 +3834,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="41">
         <v>43862</v>
       </c>
@@ -3853,7 +3854,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="41">
         <v>43891</v>
       </c>
@@ -3873,7 +3874,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="41">
         <v>43922</v>
       </c>
@@ -3893,7 +3894,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="41">
         <v>43952</v>
       </c>
@@ -3913,7 +3914,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="41">
         <v>43983</v>
       </c>
@@ -3933,7 +3934,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="41">
         <v>44013</v>
       </c>
@@ -3953,7 +3954,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="41">
         <v>44044</v>
       </c>
@@ -3979,7 +3980,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="41">
         <v>44075</v>
       </c>
@@ -3999,7 +4000,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="48"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="41">
         <v>44105</v>
       </c>
@@ -4025,7 +4026,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="41">
         <v>44136</v>
       </c>
@@ -4045,7 +4046,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="41">
         <v>44166</v>
       </c>
@@ -4065,7 +4066,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="48"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="47" t="s">
         <v>74</v>
       </c>
@@ -4083,7 +4084,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="48"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="41">
         <v>44197</v>
       </c>
@@ -4103,7 +4104,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="41">
         <v>44228</v>
       </c>
@@ -4127,7 +4128,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="48"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="41">
         <v>44256</v>
       </c>
@@ -4147,7 +4148,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="41">
         <v>44287</v>
       </c>
@@ -4167,7 +4168,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="41">
         <v>44317</v>
       </c>
@@ -4187,7 +4188,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="48"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="41">
         <v>44348</v>
       </c>
@@ -4207,7 +4208,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="48"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="41">
         <v>44378</v>
       </c>
@@ -4227,7 +4228,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="48"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="41">
         <v>44409</v>
       </c>
@@ -4247,7 +4248,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="41">
         <v>44440</v>
       </c>
@@ -4267,7 +4268,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="41">
         <v>44470</v>
       </c>
@@ -4293,7 +4294,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="41">
         <v>44501</v>
       </c>
@@ -4313,7 +4314,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="41">
         <v>44531</v>
       </c>
@@ -4333,7 +4334,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="48"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="47" t="s">
         <v>82</v>
       </c>
@@ -4351,7 +4352,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="48"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="41">
         <v>44562</v>
       </c>
@@ -4371,7 +4372,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="48"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="41">
         <v>44593</v>
       </c>
@@ -4391,7 +4392,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="48"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="41">
         <v>44621</v>
       </c>
@@ -4411,7 +4412,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="41">
         <v>44652</v>
       </c>
@@ -4437,7 +4438,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="41">
         <v>44682</v>
       </c>
@@ -4457,7 +4458,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="41">
         <v>44713</v>
       </c>
@@ -4477,7 +4478,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="48"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="41">
         <v>44743</v>
       </c>
@@ -4497,7 +4498,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="48"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="41">
         <v>44774</v>
       </c>
@@ -4517,7 +4518,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="41">
         <v>44805</v>
       </c>
@@ -4537,7 +4538,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="48"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="41">
         <v>44835</v>
       </c>
@@ -4557,7 +4558,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="41">
         <v>44866</v>
       </c>
@@ -4577,7 +4578,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="41">
         <v>44896</v>
       </c>
@@ -4603,7 +4604,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="47" t="s">
         <v>93</v>
       </c>
@@ -4621,7 +4622,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="41">
         <v>44927</v>
       </c>
@@ -4641,7 +4642,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="41">
         <v>44958</v>
       </c>
@@ -4661,7 +4662,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="41">
         <v>44986</v>
       </c>
@@ -4681,7 +4682,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="48"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="41">
         <v>45017</v>
       </c>
@@ -4699,7 +4700,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="41">
         <v>45047</v>
       </c>
@@ -4717,7 +4718,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="41">
         <v>45078</v>
       </c>
@@ -4735,7 +4736,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="41">
         <v>45108</v>
       </c>
@@ -4753,7 +4754,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="41">
         <v>45139</v>
       </c>
@@ -4771,7 +4772,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="48"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="41">
         <v>45170</v>
       </c>
@@ -4789,7 +4790,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="41">
         <v>45200</v>
       </c>
@@ -4807,7 +4808,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="41">
         <v>45231</v>
       </c>
@@ -4825,7 +4826,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="48"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="41">
         <v>45261</v>
       </c>
@@ -4843,7 +4844,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="41">
         <v>45292</v>
       </c>
@@ -4861,7 +4862,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="41">
         <v>45323</v>
       </c>
@@ -4879,7 +4880,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="48"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="41">
         <v>45352</v>
       </c>
@@ -4897,7 +4898,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="48"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="41">
         <v>45383</v>
       </c>
@@ -4915,7 +4916,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="41">
         <v>45413</v>
       </c>
@@ -4933,7 +4934,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="41">
         <v>45444</v>
       </c>
@@ -4951,7 +4952,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="48"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="41">
         <v>45474</v>
       </c>
@@ -4969,7 +4970,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="41">
         <v>45505</v>
       </c>
@@ -4987,7 +4988,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="41">
         <v>45536</v>
       </c>
@@ -5005,7 +5006,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="41">
         <v>45566</v>
       </c>
@@ -5023,7 +5024,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="41">
         <v>45597</v>
       </c>
@@ -5041,7 +5042,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="48"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="41">
         <v>45627</v>
       </c>
@@ -5059,7 +5060,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="41">
         <v>45658</v>
       </c>
@@ -5077,7 +5078,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="48"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="41">
         <v>45689</v>
       </c>
@@ -5095,7 +5096,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="41">
         <v>45717</v>
       </c>
@@ -5113,7 +5114,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="41">
         <v>45748</v>
       </c>
@@ -5131,7 +5132,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="41">
         <v>45778</v>
       </c>
@@ -5149,7 +5150,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="41">
         <v>45809</v>
       </c>
@@ -5167,7 +5168,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="41">
         <v>45839</v>
       </c>
@@ -5185,7 +5186,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="41">
         <v>45870</v>
       </c>
@@ -5203,7 +5204,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="41">
         <v>45901</v>
       </c>
@@ -5221,7 +5222,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="41">
         <v>45931</v>
       </c>
@@ -5239,7 +5240,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="41">
         <v>45962</v>
       </c>
@@ -5257,7 +5258,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="41">
         <v>45992</v>
       </c>
@@ -5275,7 +5276,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="41">
         <v>46023</v>
       </c>
@@ -5293,7 +5294,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="41">
         <v>46054</v>
       </c>
@@ -5311,7 +5312,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="41">
         <v>46082</v>
       </c>
@@ -5329,7 +5330,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="41">
         <v>46113</v>
       </c>
@@ -5347,7 +5348,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="41">
         <v>46143</v>
       </c>
@@ -5365,7 +5366,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="41">
         <v>46174</v>
       </c>
@@ -5383,7 +5384,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="41">
         <v>46204</v>
       </c>
@@ -5401,7 +5402,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="48"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="41">
         <v>46235</v>
       </c>
@@ -5419,7 +5420,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="41">
         <v>46266</v>
       </c>
@@ -5437,7 +5438,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="41">
         <v>46296</v>
       </c>
@@ -5455,7 +5456,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="41">
         <v>46327</v>
       </c>
@@ -5473,7 +5474,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="41">
         <v>46357</v>
       </c>
@@ -5491,7 +5492,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="48"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="41">
         <v>46388</v>
       </c>
@@ -5509,7 +5510,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="41">
         <v>46419</v>
       </c>
@@ -5527,7 +5528,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="41">
         <v>46447</v>
       </c>
@@ -5545,7 +5546,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="48"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="41">
         <v>46478</v>
       </c>
@@ -5563,7 +5564,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="41">
         <v>46508</v>
       </c>
@@ -5581,7 +5582,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="41">
         <v>46539</v>
       </c>
@@ -5599,7 +5600,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="41">
         <v>46569</v>
       </c>
@@ -5617,7 +5618,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="41">
         <v>46600</v>
       </c>
@@ -5635,7 +5636,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="41">
         <v>46631</v>
       </c>
@@ -5653,7 +5654,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="48"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="41">
         <v>46661</v>
       </c>
@@ -5671,7 +5672,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="41">
         <v>46692</v>
       </c>
@@ -5689,7 +5690,7 @@
       <c r="J134" s="12"/>
       <c r="K134" s="15"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="41">
         <v>46722</v>
       </c>
@@ -5707,7 +5708,7 @@
       <c r="J135" s="12"/>
       <c r="K135" s="15"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="41">
         <v>46753</v>
       </c>
@@ -5725,7 +5726,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="41">
         <v>46784</v>
       </c>
@@ -5743,7 +5744,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="48"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="41">
         <v>46813</v>
       </c>
@@ -5761,7 +5762,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="48"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="41">
         <v>46844</v>
       </c>
@@ -5779,7 +5780,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="41">
         <v>46874</v>
       </c>
@@ -5797,7 +5798,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="41">
         <v>46905</v>
       </c>
@@ -5815,7 +5816,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="41">
         <v>46935</v>
       </c>
@@ -5833,7 +5834,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="41">
         <v>46966</v>
       </c>
@@ -5851,7 +5852,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="41">
         <v>46997</v>
       </c>
@@ -5869,7 +5870,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="41">
         <v>47027</v>
       </c>
@@ -5887,7 +5888,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="41">
         <v>47058</v>
       </c>
@@ -5905,7 +5906,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="41">
         <v>47088</v>
       </c>
@@ -5923,7 +5924,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="41">
         <v>47119</v>
       </c>
@@ -5941,7 +5942,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="41">
         <v>47150</v>
       </c>
@@ -5959,7 +5960,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="41">
         <v>47178</v>
       </c>
@@ -5977,7 +5978,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="41">
         <v>47209</v>
       </c>
@@ -5995,7 +5996,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="41">
         <v>47239</v>
       </c>
@@ -6013,7 +6014,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="41">
         <v>47270</v>
       </c>
@@ -6031,7 +6032,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="41">
         <v>47300</v>
       </c>
@@ -6049,7 +6050,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="41">
         <v>47331</v>
       </c>
@@ -6067,7 +6068,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="41">
         <v>47362</v>
       </c>
@@ -6085,7 +6086,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="41">
         <v>47392</v>
       </c>
@@ -6103,7 +6104,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="41">
         <v>47423</v>
       </c>
@@ -6121,7 +6122,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="41">
         <v>47453</v>
       </c>
@@ -6139,7 +6140,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="41">
         <v>47484</v>
       </c>
@@ -6157,7 +6158,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="41">
         <v>47515</v>
       </c>
@@ -6175,7 +6176,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="41">
         <v>47543</v>
       </c>
@@ -6193,7 +6194,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="41">
         <v>47574</v>
       </c>
@@ -6211,7 +6212,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="41">
         <v>47604</v>
       </c>
@@ -6229,7 +6230,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="41">
         <v>47635</v>
       </c>
@@ -6247,7 +6248,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="41">
         <v>47665</v>
       </c>
@@ -6265,7 +6266,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="41">
         <v>47696</v>
       </c>
@@ -6283,7 +6284,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="41">
         <v>47727</v>
       </c>
@@ -6301,7 +6302,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="41">
         <v>47757</v>
       </c>
@@ -6319,7 +6320,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="41"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -6335,7 +6336,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="41"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -6351,7 +6352,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="41"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -6367,7 +6368,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="41"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -6383,7 +6384,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="41"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -6399,7 +6400,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="41"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -6415,7 +6416,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="41"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -6431,7 +6432,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="41"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -6447,7 +6448,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="41"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -6463,7 +6464,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="41"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -6479,7 +6480,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="41"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -6495,7 +6496,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="41"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -6511,7 +6512,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="41"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -6527,7 +6528,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="41"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -6543,7 +6544,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="41"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -6559,7 +6560,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="41"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -6575,7 +6576,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="41"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -6591,7 +6592,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="41"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -6607,7 +6608,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="41"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -6623,7 +6624,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="41"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -6639,7 +6640,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="41"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -6655,7 +6656,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="41"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -6671,7 +6672,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="41"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -6687,7 +6688,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="41"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -6703,7 +6704,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="41"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -6719,7 +6720,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="41"/>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -6735,7 +6736,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="41"/>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -6751,7 +6752,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="41"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -6767,7 +6768,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="41"/>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -6783,7 +6784,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="41"/>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -6799,7 +6800,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="41"/>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -6815,7 +6816,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="41"/>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -6831,7 +6832,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="41"/>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -6847,7 +6848,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="41"/>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -6863,7 +6864,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="41"/>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -6879,7 +6880,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="41"/>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
@@ -6895,7 +6896,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="41"/>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -6911,7 +6912,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="41"/>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -6927,7 +6928,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="41"/>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -6943,7 +6944,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="41"/>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -6959,7 +6960,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="41"/>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -6975,7 +6976,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="41"/>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -6991,7 +6992,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="41"/>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -7007,7 +7008,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="41"/>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -7023,7 +7024,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="41"/>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -7039,7 +7040,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="41"/>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -7055,7 +7056,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="41"/>
       <c r="B216" s="20"/>
       <c r="C216" s="13"/>
@@ -7071,7 +7072,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="41"/>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -7087,7 +7088,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="41"/>
       <c r="B218" s="20"/>
       <c r="C218" s="13"/>
@@ -7103,7 +7104,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="41"/>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
@@ -7119,7 +7120,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="41"/>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -7135,7 +7136,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="41"/>
       <c r="B221" s="20"/>
       <c r="C221" s="13"/>
@@ -7151,7 +7152,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="41"/>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
@@ -7167,7 +7168,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="41"/>
       <c r="B223" s="20"/>
       <c r="C223" s="13"/>
@@ -7183,7 +7184,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="41"/>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
@@ -7199,7 +7200,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="41"/>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
@@ -7215,7 +7216,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="41"/>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -7231,7 +7232,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="41"/>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -7247,7 +7248,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="41"/>
       <c r="B228" s="20"/>
       <c r="C228" s="13"/>
@@ -7263,7 +7264,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="41"/>
       <c r="B229" s="20"/>
       <c r="C229" s="13"/>
@@ -7279,7 +7280,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="41"/>
       <c r="B230" s="20"/>
       <c r="C230" s="13"/>
@@ -7295,7 +7296,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="41"/>
       <c r="B231" s="20"/>
       <c r="C231" s="13"/>
@@ -7311,7 +7312,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="41"/>
       <c r="B232" s="20"/>
       <c r="C232" s="13"/>
@@ -7327,7 +7328,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="41"/>
       <c r="B233" s="20"/>
       <c r="C233" s="13"/>
@@ -7343,7 +7344,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="41"/>
       <c r="B234" s="20"/>
       <c r="C234" s="13"/>
@@ -7359,7 +7360,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="41"/>
       <c r="B235" s="20"/>
       <c r="C235" s="13"/>
@@ -7375,7 +7376,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="41"/>
       <c r="B236" s="20"/>
       <c r="C236" s="13"/>
@@ -7391,7 +7392,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="41"/>
       <c r="B237" s="20"/>
       <c r="C237" s="13"/>
@@ -7407,7 +7408,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="41"/>
       <c r="B238" s="20"/>
       <c r="C238" s="13"/>
@@ -7423,7 +7424,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="41"/>
       <c r="B239" s="20"/>
       <c r="C239" s="13"/>
@@ -7439,7 +7440,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="41"/>
       <c r="B240" s="20"/>
       <c r="C240" s="13"/>
@@ -7455,7 +7456,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="41"/>
       <c r="B241" s="20"/>
       <c r="C241" s="13"/>
@@ -7471,7 +7472,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="41"/>
       <c r="B242" s="20"/>
       <c r="C242" s="13"/>
@@ -7487,7 +7488,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="41"/>
       <c r="B243" s="20"/>
       <c r="C243" s="13"/>
@@ -7503,7 +7504,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="41"/>
       <c r="B244" s="20"/>
       <c r="C244" s="13"/>
@@ -7519,7 +7520,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="41"/>
       <c r="B245" s="20"/>
       <c r="C245" s="13"/>
@@ -7535,7 +7536,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="41"/>
       <c r="B246" s="20"/>
       <c r="C246" s="13"/>
@@ -7551,7 +7552,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="41"/>
       <c r="B247" s="20"/>
       <c r="C247" s="13"/>
@@ -7567,7 +7568,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="41"/>
       <c r="B248" s="20"/>
       <c r="C248" s="13"/>
@@ -7583,7 +7584,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="41"/>
       <c r="B249" s="20"/>
       <c r="C249" s="13"/>
@@ -7599,7 +7600,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="41"/>
       <c r="B250" s="20"/>
       <c r="C250" s="13"/>
@@ -7615,7 +7616,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="41"/>
       <c r="B251" s="20"/>
       <c r="C251" s="13"/>
@@ -7631,7 +7632,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="41"/>
       <c r="B252" s="20"/>
       <c r="C252" s="13"/>
@@ -7647,7 +7648,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="41"/>
       <c r="B253" s="20"/>
       <c r="C253" s="13"/>
@@ -7663,7 +7664,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="41"/>
       <c r="B254" s="20"/>
       <c r="C254" s="13"/>
@@ -7679,7 +7680,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="41"/>
       <c r="B255" s="20"/>
       <c r="C255" s="13"/>
@@ -7695,7 +7696,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="41"/>
       <c r="B256" s="20"/>
       <c r="C256" s="13"/>
@@ -7711,7 +7712,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="41"/>
       <c r="B257" s="20"/>
       <c r="C257" s="13"/>
@@ -7727,7 +7728,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="41"/>
       <c r="B258" s="20"/>
       <c r="C258" s="13"/>
@@ -7743,7 +7744,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="41"/>
       <c r="B259" s="20"/>
       <c r="C259" s="13"/>
@@ -7759,7 +7760,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="41"/>
       <c r="B260" s="20"/>
       <c r="C260" s="13"/>
@@ -7775,7 +7776,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="41"/>
       <c r="B261" s="20"/>
       <c r="C261" s="13"/>
@@ -7791,7 +7792,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="41"/>
       <c r="B262" s="20"/>
       <c r="C262" s="13"/>
@@ -7807,7 +7808,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="41"/>
       <c r="B263" s="20"/>
       <c r="C263" s="13"/>
@@ -7823,7 +7824,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="41"/>
       <c r="B264" s="20"/>
       <c r="C264" s="13"/>
@@ -7839,7 +7840,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="41"/>
       <c r="B265" s="20"/>
       <c r="C265" s="13"/>
@@ -7855,7 +7856,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="41"/>
       <c r="B266" s="20"/>
       <c r="C266" s="13"/>
@@ -7871,7 +7872,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="41"/>
       <c r="B267" s="20"/>
       <c r="C267" s="13"/>
@@ -7887,7 +7888,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="41"/>
       <c r="B268" s="20"/>
       <c r="C268" s="13"/>
@@ -7903,7 +7904,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="42"/>
       <c r="B269" s="15"/>
       <c r="C269" s="43"/>
@@ -7934,10 +7935,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7960,34 +7961,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4785" topLeftCell="A70" activePane="bottomLeft"/>
+      <pane ySplit="4788" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
       <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -8008,7 +8009,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -8026,7 +8027,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -8046,7 +8047,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -8054,7 +8055,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -8067,7 +8068,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -8084,7 +8085,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -8119,7 +8120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -8143,7 +8144,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -8165,7 +8166,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="41">
         <v>43101</v>
       </c>
@@ -8189,7 +8190,7 @@
         <v>43130</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="41">
         <v>43160</v>
       </c>
@@ -8213,7 +8214,7 @@
         <v>43160</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="42"/>
       <c r="B13" s="15" t="s">
         <v>48</v>
@@ -8235,7 +8236,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="41">
         <v>43221</v>
       </c>
@@ -8259,7 +8260,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="41"/>
       <c r="B15" s="20" t="s">
         <v>50</v>
@@ -8279,7 +8280,7 @@
         <v>43244</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -8301,7 +8302,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="41"/>
       <c r="B17" s="20" t="s">
         <v>46</v>
@@ -8323,7 +8324,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="41">
         <v>43282</v>
       </c>
@@ -8347,7 +8348,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="41"/>
       <c r="B19" s="20" t="s">
         <v>53</v>
@@ -8369,7 +8370,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="41"/>
       <c r="B20" s="20" t="s">
         <v>45</v>
@@ -8391,7 +8392,7 @@
         <v>43302</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41"/>
       <c r="B21" s="20" t="s">
         <v>48</v>
@@ -8413,7 +8414,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <v>43313</v>
       </c>
@@ -8437,7 +8438,7 @@
         <v>43340</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="41">
         <v>43344</v>
       </c>
@@ -8461,7 +8462,7 @@
         <v>43368</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <v>43374</v>
       </c>
@@ -8485,7 +8486,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="41">
         <v>43405</v>
       </c>
@@ -8509,7 +8510,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="41"/>
       <c r="B26" s="20" t="s">
         <v>61</v>
@@ -8531,7 +8532,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="41">
         <v>43435</v>
       </c>
@@ -8555,7 +8556,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="47" t="s">
         <v>64</v>
       </c>
@@ -8573,7 +8574,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="41">
         <v>43497</v>
       </c>
@@ -8595,7 +8596,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="41">
         <v>43525</v>
       </c>
@@ -8619,7 +8620,7 @@
         <v>43542</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="41">
         <v>43586</v>
       </c>
@@ -8643,7 +8644,7 @@
         <v>43606</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="41">
         <v>43617</v>
       </c>
@@ -8665,7 +8666,7 @@
         <v>43638</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="41">
         <v>43678</v>
       </c>
@@ -8689,7 +8690,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="41"/>
       <c r="B34" s="20" t="s">
         <v>50</v>
@@ -8709,7 +8710,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="41">
         <v>43709</v>
       </c>
@@ -8733,7 +8734,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="41">
         <v>43739</v>
       </c>
@@ -8757,7 +8758,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="41"/>
       <c r="B37" s="20" t="s">
         <v>45</v>
@@ -8779,7 +8780,7 @@
         <v>43760</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="41">
         <v>43770</v>
       </c>
@@ -8803,7 +8804,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="41"/>
       <c r="B39" s="20" t="s">
         <v>53</v>
@@ -8823,7 +8824,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="41"/>
       <c r="B40" s="20" t="s">
         <v>45</v>
@@ -8845,7 +8846,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="41"/>
       <c r="B41" s="20" t="s">
         <v>45</v>
@@ -8867,7 +8868,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="47" t="s">
         <v>66</v>
       </c>
@@ -8885,7 +8886,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="41">
         <v>43862</v>
       </c>
@@ -8907,7 +8908,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="41"/>
       <c r="B44" s="20" t="s">
         <v>51</v>
@@ -8927,7 +8928,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="41">
         <v>44013</v>
       </c>
@@ -8951,7 +8952,7 @@
         <v>44019</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="41">
         <v>44044</v>
       </c>
@@ -8975,7 +8976,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="41">
         <v>44075</v>
       </c>
@@ -8999,7 +9000,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="41"/>
       <c r="B48" s="20" t="s">
         <v>70</v>
@@ -9021,7 +9022,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="41"/>
       <c r="B49" s="20" t="s">
         <v>45</v>
@@ -9043,7 +9044,7 @@
         <v>44103</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="41">
         <v>44105</v>
       </c>
@@ -9065,7 +9066,7 @@
         <v>44131</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="47" t="s">
         <v>74</v>
       </c>
@@ -9083,7 +9084,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="41">
         <v>44197</v>
       </c>
@@ -9107,7 +9108,7 @@
         <v>44215</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="41">
         <v>44228</v>
       </c>
@@ -9131,7 +9132,7 @@
         <v>44244</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="41">
         <v>44378</v>
       </c>
@@ -9153,7 +9154,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="41">
         <v>44440</v>
       </c>
@@ -9175,7 +9176,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="41">
         <v>44470</v>
       </c>
@@ -9197,7 +9198,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="41">
         <v>44531</v>
       </c>
@@ -9221,7 +9222,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="47" t="s">
         <v>82</v>
       </c>
@@ -9239,7 +9240,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="41">
         <v>44562</v>
       </c>
@@ -9263,7 +9264,7 @@
         <v>44588</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="41">
         <v>44652</v>
       </c>
@@ -9287,7 +9288,7 @@
         <v>44659</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="41">
         <v>44682</v>
       </c>
@@ -9311,7 +9312,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="41"/>
       <c r="B62" s="20" t="s">
         <v>58</v>
@@ -9333,7 +9334,7 @@
         <v>44705</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="41">
         <v>44743</v>
       </c>
@@ -9357,7 +9358,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="41">
         <v>44774</v>
       </c>
@@ -9381,7 +9382,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="41"/>
       <c r="B65" s="20" t="s">
         <v>50</v>
@@ -9401,7 +9402,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="42">
         <v>44805</v>
       </c>
@@ -9425,7 +9426,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="41">
         <v>44835</v>
       </c>
@@ -9447,7 +9448,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="41"/>
       <c r="B68" s="20" t="s">
         <v>58</v>
@@ -9469,7 +9470,7 @@
         <v>44853</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="41">
         <v>44866</v>
       </c>
@@ -9493,7 +9494,7 @@
         <v>44889</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="41"/>
       <c r="B70" s="20" t="s">
         <v>45</v>
@@ -9515,7 +9516,7 @@
         <v>44876</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="41">
         <v>44896</v>
       </c>
@@ -9539,7 +9540,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="41"/>
       <c r="B72" s="20" t="s">
         <v>50</v>
@@ -9559,7 +9560,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="47" t="s">
         <v>93</v>
       </c>
@@ -9577,7 +9578,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="41">
         <v>44927</v>
       </c>
@@ -9601,7 +9602,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="41"/>
       <c r="B75" s="20" t="s">
         <v>46</v>
@@ -9623,7 +9624,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="41"/>
       <c r="B76" s="20" t="s">
         <v>94</v>
@@ -9645,7 +9646,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="41">
         <v>44986</v>
       </c>
@@ -9669,7 +9670,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="41"/>
       <c r="B78" s="20" t="s">
         <v>45</v>
@@ -9691,7 +9692,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="41"/>
       <c r="B79" s="20" t="s">
         <v>50</v>
@@ -9711,7 +9712,7 @@
         <v>45006</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="41"/>
       <c r="B80" s="20" t="s">
         <v>45</v>
@@ -9733,7 +9734,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="41"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -9749,7 +9750,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="41"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -9765,7 +9766,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="41"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -9781,7 +9782,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="41"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -9797,7 +9798,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="41"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -9813,7 +9814,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="41"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -9829,7 +9830,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="41"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -9845,7 +9846,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="41"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -9861,7 +9862,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="41"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -9877,7 +9878,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="41"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -9893,7 +9894,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="41"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -9909,7 +9910,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="41"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -9925,7 +9926,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="41"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -9941,7 +9942,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="41"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -9957,7 +9958,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="41"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -9973,7 +9974,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="41"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -9989,7 +9990,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="41"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -10005,7 +10006,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="41"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -10021,7 +10022,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="41"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -10037,7 +10038,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="41"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -10053,7 +10054,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="41"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -10069,7 +10070,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="41"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -10085,7 +10086,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="41"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -10101,7 +10102,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="41"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -10117,7 +10118,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="41"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -10133,7 +10134,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="41"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -10149,7 +10150,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="41"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -10165,7 +10166,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="41"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -10181,7 +10182,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="41"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -10197,7 +10198,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="41"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -10213,7 +10214,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="41"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -10229,7 +10230,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="41"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -10245,7 +10246,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="41"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -10261,7 +10262,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="41"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -10277,7 +10278,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="41"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -10293,7 +10294,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="41"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -10309,7 +10310,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="41"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -10325,7 +10326,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="41"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -10341,7 +10342,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="41"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -10357,7 +10358,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="41"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -10373,7 +10374,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="41"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -10389,7 +10390,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="41"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -10405,7 +10406,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="41"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -10421,7 +10422,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="41"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -10437,7 +10438,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="41"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -10453,7 +10454,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="41"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -10469,7 +10470,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="41"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -10485,7 +10486,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="41"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -10501,7 +10502,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="41"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -10517,7 +10518,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="41"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -10533,7 +10534,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="41"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -10549,7 +10550,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="41"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -10565,7 +10566,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="41"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -10581,7 +10582,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="41"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -10597,7 +10598,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="41"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -10613,7 +10614,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="41"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -10629,7 +10630,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="41"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -10645,7 +10646,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="41"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -10661,7 +10662,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="41"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -10677,7 +10678,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="41"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -10693,7 +10694,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="41"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -10709,7 +10710,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="41"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -10725,7 +10726,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="41"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -10741,7 +10742,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="41"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -10757,7 +10758,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="41"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -10773,7 +10774,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="41"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -10789,7 +10790,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="41"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -10805,7 +10806,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="41"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -10821,7 +10822,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="41"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -10837,7 +10838,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="41"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -10853,7 +10854,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="41"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -10869,7 +10870,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="41"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -10885,7 +10886,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="41"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -10901,7 +10902,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="41"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -10917,7 +10918,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="41"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -10933,7 +10934,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="41"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -10949,7 +10950,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="41"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -10965,7 +10966,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="41"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -10981,7 +10982,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="41"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -10997,7 +10998,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="41"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -11013,7 +11014,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="41"/>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -11029,7 +11030,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="41"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -11045,7 +11046,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="41"/>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -11061,7 +11062,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="41"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -11077,7 +11078,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="41"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -11093,7 +11094,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="41"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -11109,7 +11110,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="41"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -11125,7 +11126,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="41"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -11141,7 +11142,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="41"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -11157,7 +11158,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="41"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -11173,7 +11174,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="41"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -11189,7 +11190,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="41"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -11205,7 +11206,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="41"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -11221,7 +11222,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="41"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -11237,7 +11238,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="41"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -11253,7 +11254,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="41"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -11269,7 +11270,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="41"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -11285,7 +11286,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="41"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -11301,7 +11302,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="41"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -11317,7 +11318,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="41"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -11333,7 +11334,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="41"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -11349,7 +11350,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="41"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -11365,7 +11366,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="41"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -11381,7 +11382,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="41"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -11397,7 +11398,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="41"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -11413,7 +11414,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="41"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -11429,7 +11430,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="41"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -11445,7 +11446,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="41"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -11461,7 +11462,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="41"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -11477,7 +11478,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="41"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -11493,7 +11494,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="41"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -11509,7 +11510,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="41"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -11525,7 +11526,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="41"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -11541,7 +11542,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="41"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -11557,7 +11558,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="41"/>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -11573,7 +11574,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="41"/>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -11589,7 +11590,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="41"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -11605,7 +11606,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="41"/>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -11621,7 +11622,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="41"/>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -11637,7 +11638,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="42"/>
       <c r="B200" s="15"/>
       <c r="C200" s="43"/>
@@ -11655,23 +11656,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11694,28 +11695,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="38" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="38" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -11728,7 +11729,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11757,7 +11758,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>66.042000000000002</v>
       </c>
@@ -11781,7 +11782,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0</v>
@@ -11796,10 +11797,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="39" t="s">
         <v>28</v>
       </c>
@@ -11819,7 +11820,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="38">
         <v>1</v>
       </c>
@@ -11845,7 +11846,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="38">
         <v>2</v>
       </c>
@@ -11871,7 +11872,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="38">
         <v>3</v>
       </c>
@@ -11897,7 +11898,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="38">
         <v>4</v>
       </c>
@@ -11923,7 +11924,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="38">
         <v>5</v>
       </c>
@@ -11949,7 +11950,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="38">
         <v>6</v>
       </c>
@@ -11975,7 +11976,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="38">
         <v>7</v>
       </c>
@@ -12001,7 +12002,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="38">
         <v>8</v>
       </c>
@@ -12027,7 +12028,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="38">
         <v>9</v>
       </c>
@@ -12047,7 +12048,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="38">
         <v>10</v>
       </c>
@@ -12067,7 +12068,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="38">
         <v>11</v>
       </c>
@@ -12087,7 +12088,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="38">
         <v>12</v>
       </c>
@@ -12108,7 +12109,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="38">
         <v>13</v>
       </c>
@@ -12129,7 +12130,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="38">
         <v>14</v>
       </c>
@@ -12150,7 +12151,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="38">
         <v>15</v>
       </c>
@@ -12171,7 +12172,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="38">
         <v>16</v>
       </c>
@@ -12192,7 +12193,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="38">
         <v>17</v>
       </c>
@@ -12213,7 +12214,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="38">
         <v>18</v>
       </c>
@@ -12234,7 +12235,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="38">
         <v>19</v>
       </c>
@@ -12255,7 +12256,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="38">
         <v>20</v>
       </c>
@@ -12276,7 +12277,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="38">
         <v>21</v>
       </c>
@@ -12297,7 +12298,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="38">
         <v>22</v>
       </c>
@@ -12318,7 +12319,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="38">
         <v>23</v>
       </c>
@@ -12339,7 +12340,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="38">
         <v>24</v>
       </c>
@@ -12360,7 +12361,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="38">
         <v>25</v>
       </c>
@@ -12381,7 +12382,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="38">
         <v>26</v>
       </c>
@@ -12402,7 +12403,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="38">
         <v>27</v>
       </c>
@@ -12423,7 +12424,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="38">
         <v>28</v>
       </c>
@@ -12444,7 +12445,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="38">
         <v>29</v>
       </c>
@@ -12465,7 +12466,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="38">
         <v>30</v>
       </c>
@@ -12486,7 +12487,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="38">
         <v>31</v>
       </c>
@@ -12507,7 +12508,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="38">
         <v>32</v>
       </c>
@@ -12516,7 +12517,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="38">
         <v>33</v>
       </c>
@@ -12525,7 +12526,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="38">
         <v>34</v>
       </c>
@@ -12534,7 +12535,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="38">
         <v>35</v>
       </c>
@@ -12543,7 +12544,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="38">
         <v>36</v>
       </c>
@@ -12552,7 +12553,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="38">
         <v>37</v>
       </c>
@@ -12561,7 +12562,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="38">
         <v>38</v>
       </c>
@@ -12570,7 +12571,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="38">
         <v>39</v>
       </c>
@@ -12579,7 +12580,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="38">
         <v>40</v>
       </c>
@@ -12588,7 +12589,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="38">
         <v>41</v>
       </c>
@@ -12597,7 +12598,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="38">
         <v>42</v>
       </c>
@@ -12606,7 +12607,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="38">
         <v>43</v>
       </c>
@@ -12615,7 +12616,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="38">
         <v>44</v>
       </c>
@@ -12624,7 +12625,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="38">
         <v>45</v>
       </c>
@@ -12633,7 +12634,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="38">
         <v>46</v>
       </c>
@@ -12642,7 +12643,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="38">
         <v>47</v>
       </c>
@@ -12651,7 +12652,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="38">
         <v>48</v>
       </c>
@@ -12660,7 +12661,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="38">
         <v>49</v>
       </c>
@@ -12669,7 +12670,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="38">
         <v>50</v>
       </c>
@@ -12678,7 +12679,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="38">
         <v>51</v>
       </c>
@@ -12687,7 +12688,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="38">
         <v>52</v>
       </c>
@@ -12696,7 +12697,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="38">
         <v>53</v>
       </c>
@@ -12705,7 +12706,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="38">
         <v>54</v>
       </c>
@@ -12714,7 +12715,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="38">
         <v>55</v>
       </c>
@@ -12723,7 +12724,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="38">
         <v>56</v>
       </c>
@@ -12732,7 +12733,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="38">
         <v>57</v>
       </c>
@@ -12741,7 +12742,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="38">
         <v>58</v>
       </c>
@@ -12750,7 +12751,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="38">
         <v>59</v>
       </c>
@@ -12759,7 +12760,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="38">
         <v>60</v>
       </c>
@@ -12768,7 +12769,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/DIMAANO, LEOVIGILDA ANGCAYA.xlsx
+++ b/DIMAANO, LEOVIGILDA ANGCAYA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534A93A7-40CB-49EB-8F94-FD42078614F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="5" r:id="rId1"/>
@@ -30,7 +29,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="100">
   <si>
     <t>PERIOD</t>
   </si>
@@ -335,11 +334,17 @@
   <si>
     <t>1/24-28/2023</t>
   </si>
+  <si>
+    <t>5/29,30/2023</t>
+  </si>
+  <si>
+    <t>06/19,20/20223</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1267,7 +1272,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68AD954A-7DD0-44FF-AB11-86F01056025D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{68AD954A-7DD0-44FF-AB11-86F01056025D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1310,7 +1315,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9734F851-CE56-4EDF-9EF1-953EE5DBE251}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9734F851-CE56-4EDF-9EF1-953EE5DBE251}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1374,7 +1379,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F20BBBF6-75FF-4CBE-ACA6-861D3D1E7806}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F20BBBF6-75FF-4CBE-ACA6-861D3D1E7806}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1434,7 +1439,7 @@
         <xdr:cNvPr id="5" name="Oval 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D946256-EBA3-4C5E-AE90-878D5CCD71A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D946256-EBA3-4C5E-AE90-878D5CCD71A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1500,7 +1505,7 @@
         <xdr:cNvPr id="6" name="Arrow: Left-Right 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E3A2BDE-476B-4DD9-9E27-446EC9F2235E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E3A2BDE-476B-4DD9-9E27-446EC9F2235E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1563,7 +1568,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DBE5C18-7CCB-4DF4-B046-F8228CD70B27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4DBE5C18-7CCB-4DF4-B046-F8228CD70B27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1661,7 +1666,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82624F04-EE7B-4FCB-9116-9D70AD30C87C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82624F04-EE7B-4FCB-9116-9D70AD30C87C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1720,7 +1725,7 @@
         <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C14E1DB5-CA39-407E-9D7F-F15CAEC7010D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C14E1DB5-CA39-407E-9D7F-F15CAEC7010D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1785,7 +1790,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F62F5BC-A343-4F32-BDC2-D47ECC0CCE92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F62F5BC-A343-4F32-BDC2-D47ECC0CCE92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1828,7 +1833,7 @@
         <xdr:cNvPr id="11" name="TextBox 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DB27CA2-2552-44E6-A70A-046BB421FD07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2DB27CA2-2552-44E6-A70A-046BB421FD07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1903,7 +1908,7 @@
         <xdr:cNvPr id="12" name="TextBox 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8909640B-E004-43FC-ABD8-AE5736852DDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8909640B-E004-43FC-ABD8-AE5736852DDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2089,7 +2094,7 @@
         <xdr:cNvPr id="13" name="Oval 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E20CC74B-D16E-44AB-8CBC-F2E8E6BAF9B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E20CC74B-D16E-44AB-8CBC-F2E8E6BAF9B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2155,7 +2160,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0366E899-0AE8-4DB2-AF27-0D5D4E430ECE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0366E899-0AE8-4DB2-AF27-0D5D4E430ECE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2213,7 +2218,7 @@
         <xdr:cNvPr id="15" name="Oval 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DB812C1-23F7-4585-97FF-0895CE7B771F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3DB812C1-23F7-4585-97FF-0895CE7B771F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2279,7 +2284,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12B1D48-77ED-4828-9B15-4F15CF7CC202}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F12B1D48-77ED-4828-9B15-4F15CF7CC202}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2335,7 +2340,7 @@
         <xdr:cNvPr id="17" name="TextBox 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{889682BF-D44A-4475-9B2D-5ED8A675DCF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{889682BF-D44A-4475-9B2D-5ED8A675DCF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,7 +2415,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFCE4D25-2139-496B-845E-126AABE113D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DFCE4D25-2139-496B-845E-126AABE113D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2453,7 +2458,7 @@
         <xdr:cNvPr id="19" name="Oval 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F84D279C-7E4C-4B53-85A5-A21A8FE39F8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F84D279C-7E4C-4B53-85A5-A21A8FE39F8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2519,7 +2524,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2129D637-A52B-4CD3-B274-97910BC7E60D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2129D637-A52B-4CD3-B274-97910BC7E60D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2575,7 +2580,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D6AFE9D-0D0D-4B8C-AC0C-2BD2F4978AA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D6AFE9D-0D0D-4B8C-AC0C-2BD2F4978AA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2692,25 +2697,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K269" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K269" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2722,25 +2727,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K200" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K200" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3047,7 +3052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3057,7 +3062,7 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3065,34 +3070,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K269"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3588" topLeftCell="A64" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3585" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
+      <selection pane="bottomLeft" activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3113,7 +3118,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3131,7 +3136,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3151,7 +3156,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3159,7 +3164,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3172,7 +3177,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3189,7 +3194,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3224,7 +3229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3248,7 +3253,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -3268,7 +3273,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>43101</v>
       </c>
@@ -3288,7 +3293,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="48"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>43132</v>
       </c>
@@ -3314,7 +3319,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
         <v>43160</v>
       </c>
@@ -3334,7 +3339,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="41">
         <v>43191</v>
       </c>
@@ -3354,7 +3359,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>43221</v>
       </c>
@@ -3374,7 +3379,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="48"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -3394,7 +3399,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <v>43282</v>
       </c>
@@ -3414,7 +3419,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <v>43313</v>
       </c>
@@ -3434,7 +3439,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <v>43344</v>
       </c>
@@ -3454,7 +3459,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="48"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>43374</v>
       </c>
@@ -3474,7 +3479,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="48"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <v>43405</v>
       </c>
@@ -3494,7 +3499,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>43435</v>
       </c>
@@ -3514,7 +3519,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>64</v>
       </c>
@@ -3532,7 +3537,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <v>43466</v>
       </c>
@@ -3552,7 +3557,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <v>43497</v>
       </c>
@@ -3572,7 +3577,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <v>43525</v>
       </c>
@@ -3592,7 +3597,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="41">
         <v>43556</v>
       </c>
@@ -3612,7 +3617,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="48"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="41">
         <v>43586</v>
       </c>
@@ -3632,7 +3637,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="41">
         <v>43617</v>
       </c>
@@ -3652,7 +3657,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>43647</v>
       </c>
@@ -3672,7 +3677,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="48"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="41">
         <v>43678</v>
       </c>
@@ -3698,7 +3703,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <v>43709</v>
       </c>
@@ -3724,7 +3729,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
         <v>43739</v>
       </c>
@@ -3750,7 +3755,7 @@
         <v>43762</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="41">
         <v>43770</v>
       </c>
@@ -3770,7 +3775,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <v>43800</v>
       </c>
@@ -3796,7 +3801,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
         <v>66</v>
       </c>
@@ -3814,7 +3819,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="41">
         <v>43831</v>
       </c>
@@ -3834,7 +3839,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="41">
         <v>43862</v>
       </c>
@@ -3854,7 +3859,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="41">
         <v>43891</v>
       </c>
@@ -3874,7 +3879,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="41">
         <v>43922</v>
       </c>
@@ -3894,7 +3899,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="41">
         <v>43952</v>
       </c>
@@ -3914,7 +3919,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="41">
         <v>43983</v>
       </c>
@@ -3934,7 +3939,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="41">
         <v>44013</v>
       </c>
@@ -3954,7 +3959,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="41">
         <v>44044</v>
       </c>
@@ -3980,7 +3985,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="41">
         <v>44075</v>
       </c>
@@ -4000,7 +4005,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="48"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="41">
         <v>44105</v>
       </c>
@@ -4026,7 +4031,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="41">
         <v>44136</v>
       </c>
@@ -4046,7 +4051,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="41">
         <v>44166</v>
       </c>
@@ -4066,7 +4071,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="48"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
         <v>74</v>
       </c>
@@ -4084,7 +4089,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="48"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="41">
         <v>44197</v>
       </c>
@@ -4104,7 +4109,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="41">
         <v>44228</v>
       </c>
@@ -4128,7 +4133,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="48"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="41">
         <v>44256</v>
       </c>
@@ -4148,7 +4153,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="41">
         <v>44287</v>
       </c>
@@ -4168,7 +4173,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="41">
         <v>44317</v>
       </c>
@@ -4188,7 +4193,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="48"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="41">
         <v>44348</v>
       </c>
@@ -4208,7 +4213,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="48"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="41">
         <v>44378</v>
       </c>
@@ -4228,7 +4233,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="48"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="41">
         <v>44409</v>
       </c>
@@ -4248,7 +4253,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="41">
         <v>44440</v>
       </c>
@@ -4268,7 +4273,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="41">
         <v>44470</v>
       </c>
@@ -4294,7 +4299,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="41">
         <v>44501</v>
       </c>
@@ -4314,7 +4319,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="41">
         <v>44531</v>
       </c>
@@ -4334,7 +4339,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="48"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="47" t="s">
         <v>82</v>
       </c>
@@ -4352,7 +4357,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="48"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="41">
         <v>44562</v>
       </c>
@@ -4372,7 +4377,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="48"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="41">
         <v>44593</v>
       </c>
@@ -4392,7 +4397,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="48"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="41">
         <v>44621</v>
       </c>
@@ -4412,7 +4417,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="41">
         <v>44652</v>
       </c>
@@ -4438,7 +4443,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="41">
         <v>44682</v>
       </c>
@@ -4458,7 +4463,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="41">
         <v>44713</v>
       </c>
@@ -4478,7 +4483,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="48"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="41">
         <v>44743</v>
       </c>
@@ -4498,7 +4503,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="48"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="41">
         <v>44774</v>
       </c>
@@ -4518,7 +4523,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="41">
         <v>44805</v>
       </c>
@@ -4538,7 +4543,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="48"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="41">
         <v>44835</v>
       </c>
@@ -4558,7 +4563,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="41">
         <v>44866</v>
       </c>
@@ -4578,7 +4583,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="41">
         <v>44896</v>
       </c>
@@ -4604,7 +4609,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="47" t="s">
         <v>93</v>
       </c>
@@ -4622,7 +4627,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="41">
         <v>44927</v>
       </c>
@@ -4642,7 +4647,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="41">
         <v>44958</v>
       </c>
@@ -4662,7 +4667,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="41">
         <v>44986</v>
       </c>
@@ -4682,7 +4687,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="48"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="41">
         <v>45017</v>
       </c>
@@ -4700,7 +4705,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="41">
         <v>45047</v>
       </c>
@@ -4718,7 +4723,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="41">
         <v>45078</v>
       </c>
@@ -4736,7 +4741,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="41">
         <v>45108</v>
       </c>
@@ -4754,7 +4759,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="41">
         <v>45139</v>
       </c>
@@ -4772,7 +4777,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="48"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="41">
         <v>45170</v>
       </c>
@@ -4790,7 +4795,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="41">
         <v>45200</v>
       </c>
@@ -4808,7 +4813,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="41">
         <v>45231</v>
       </c>
@@ -4826,7 +4831,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="48"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="41">
         <v>45261</v>
       </c>
@@ -4844,7 +4849,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="41">
         <v>45292</v>
       </c>
@@ -4862,7 +4867,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="41">
         <v>45323</v>
       </c>
@@ -4880,7 +4885,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="48"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="41">
         <v>45352</v>
       </c>
@@ -4898,7 +4903,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="48"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="41">
         <v>45383</v>
       </c>
@@ -4916,7 +4921,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="41">
         <v>45413</v>
       </c>
@@ -4934,7 +4939,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="41">
         <v>45444</v>
       </c>
@@ -4952,7 +4957,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="48"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="41">
         <v>45474</v>
       </c>
@@ -4970,7 +4975,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="41">
         <v>45505</v>
       </c>
@@ -4988,7 +4993,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="41">
         <v>45536</v>
       </c>
@@ -5006,7 +5011,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="41">
         <v>45566</v>
       </c>
@@ -5024,7 +5029,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="41">
         <v>45597</v>
       </c>
@@ -5042,7 +5047,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="48"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="41">
         <v>45627</v>
       </c>
@@ -5060,7 +5065,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="41">
         <v>45658</v>
       </c>
@@ -5078,7 +5083,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="48"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="41">
         <v>45689</v>
       </c>
@@ -5096,7 +5101,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="41">
         <v>45717</v>
       </c>
@@ -5114,7 +5119,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="41">
         <v>45748</v>
       </c>
@@ -5132,7 +5137,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="41">
         <v>45778</v>
       </c>
@@ -5150,7 +5155,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="41">
         <v>45809</v>
       </c>
@@ -5168,7 +5173,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="41">
         <v>45839</v>
       </c>
@@ -5186,7 +5191,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="41">
         <v>45870</v>
       </c>
@@ -5204,7 +5209,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="41">
         <v>45901</v>
       </c>
@@ -5222,7 +5227,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="41">
         <v>45931</v>
       </c>
@@ -5240,7 +5245,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="41">
         <v>45962</v>
       </c>
@@ -5258,7 +5263,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="41">
         <v>45992</v>
       </c>
@@ -5276,7 +5281,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="41">
         <v>46023</v>
       </c>
@@ -5294,7 +5299,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="41">
         <v>46054</v>
       </c>
@@ -5312,7 +5317,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="41">
         <v>46082</v>
       </c>
@@ -5330,7 +5335,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="41">
         <v>46113</v>
       </c>
@@ -5348,7 +5353,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="41">
         <v>46143</v>
       </c>
@@ -5366,7 +5371,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="41">
         <v>46174</v>
       </c>
@@ -5384,7 +5389,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="41">
         <v>46204</v>
       </c>
@@ -5402,7 +5407,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="48"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="41">
         <v>46235</v>
       </c>
@@ -5420,7 +5425,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="41">
         <v>46266</v>
       </c>
@@ -5438,7 +5443,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="41">
         <v>46296</v>
       </c>
@@ -5456,7 +5461,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="41">
         <v>46327</v>
       </c>
@@ -5474,7 +5479,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="41">
         <v>46357</v>
       </c>
@@ -5492,7 +5497,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="48"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="41">
         <v>46388</v>
       </c>
@@ -5510,7 +5515,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="41">
         <v>46419</v>
       </c>
@@ -5528,7 +5533,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="41">
         <v>46447</v>
       </c>
@@ -5546,7 +5551,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="48"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="41">
         <v>46478</v>
       </c>
@@ -5564,7 +5569,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="41">
         <v>46508</v>
       </c>
@@ -5582,7 +5587,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="41">
         <v>46539</v>
       </c>
@@ -5600,7 +5605,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41">
         <v>46569</v>
       </c>
@@ -5618,7 +5623,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="41">
         <v>46600</v>
       </c>
@@ -5636,7 +5641,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="41">
         <v>46631</v>
       </c>
@@ -5654,7 +5659,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="48"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="41">
         <v>46661</v>
       </c>
@@ -5672,7 +5677,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="41">
         <v>46692</v>
       </c>
@@ -5690,7 +5695,7 @@
       <c r="J134" s="12"/>
       <c r="K134" s="15"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="41">
         <v>46722</v>
       </c>
@@ -5708,7 +5713,7 @@
       <c r="J135" s="12"/>
       <c r="K135" s="15"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="41">
         <v>46753</v>
       </c>
@@ -5726,7 +5731,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="41">
         <v>46784</v>
       </c>
@@ -5744,7 +5749,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="48"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="41">
         <v>46813</v>
       </c>
@@ -5762,7 +5767,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="48"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="41">
         <v>46844</v>
       </c>
@@ -5780,7 +5785,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="41">
         <v>46874</v>
       </c>
@@ -5798,7 +5803,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="41">
         <v>46905</v>
       </c>
@@ -5816,7 +5821,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="41">
         <v>46935</v>
       </c>
@@ -5834,7 +5839,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="41">
         <v>46966</v>
       </c>
@@ -5852,7 +5857,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="41">
         <v>46997</v>
       </c>
@@ -5870,7 +5875,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="41">
         <v>47027</v>
       </c>
@@ -5888,7 +5893,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="41">
         <v>47058</v>
       </c>
@@ -5906,7 +5911,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="41">
         <v>47088</v>
       </c>
@@ -5924,7 +5929,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="41">
         <v>47119</v>
       </c>
@@ -5942,7 +5947,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="41">
         <v>47150</v>
       </c>
@@ -5960,7 +5965,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="41">
         <v>47178</v>
       </c>
@@ -5978,7 +5983,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="41">
         <v>47209</v>
       </c>
@@ -5996,7 +6001,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="41">
         <v>47239</v>
       </c>
@@ -6014,7 +6019,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="41">
         <v>47270</v>
       </c>
@@ -6032,7 +6037,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="41">
         <v>47300</v>
       </c>
@@ -6050,7 +6055,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="41">
         <v>47331</v>
       </c>
@@ -6068,7 +6073,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="41">
         <v>47362</v>
       </c>
@@ -6086,7 +6091,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="41">
         <v>47392</v>
       </c>
@@ -6104,7 +6109,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="41">
         <v>47423</v>
       </c>
@@ -6122,7 +6127,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="41">
         <v>47453</v>
       </c>
@@ -6140,7 +6145,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="41">
         <v>47484</v>
       </c>
@@ -6158,7 +6163,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="41">
         <v>47515</v>
       </c>
@@ -6176,7 +6181,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="41">
         <v>47543</v>
       </c>
@@ -6194,7 +6199,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="41">
         <v>47574</v>
       </c>
@@ -6212,7 +6217,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="41">
         <v>47604</v>
       </c>
@@ -6230,7 +6235,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="41">
         <v>47635</v>
       </c>
@@ -6248,7 +6253,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="41">
         <v>47665</v>
       </c>
@@ -6266,7 +6271,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="41">
         <v>47696</v>
       </c>
@@ -6284,7 +6289,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="41">
         <v>47727</v>
       </c>
@@ -6302,7 +6307,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="41">
         <v>47757</v>
       </c>
@@ -6320,7 +6325,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="41"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -6336,7 +6341,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="41"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -6352,7 +6357,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="41"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -6368,7 +6373,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="41"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -6384,7 +6389,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="41"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -6400,7 +6405,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="41"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -6416,7 +6421,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="41"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -6432,7 +6437,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="41"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -6448,7 +6453,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="41"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -6464,7 +6469,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="41"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -6480,7 +6485,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="41"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -6496,7 +6501,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="41"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -6512,7 +6517,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="41"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -6528,7 +6533,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="41"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -6544,7 +6549,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="41"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -6560,7 +6565,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="41"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -6576,7 +6581,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="41"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -6592,7 +6597,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="41"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -6608,7 +6613,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="41"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -6624,7 +6629,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="41"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -6640,7 +6645,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="41"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -6656,7 +6661,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="41"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -6672,7 +6677,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="41"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -6688,7 +6693,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="41"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -6704,7 +6709,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="41"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -6720,7 +6725,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="41"/>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -6736,7 +6741,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="41"/>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -6752,7 +6757,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="41"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -6768,7 +6773,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="41"/>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -6784,7 +6789,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="41"/>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -6800,7 +6805,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="41"/>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -6816,7 +6821,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="41"/>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -6832,7 +6837,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="41"/>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -6848,7 +6853,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="41"/>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -6864,7 +6869,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="41"/>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -6880,7 +6885,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="41"/>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
@@ -6896,7 +6901,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="41"/>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -6912,7 +6917,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="41"/>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -6928,7 +6933,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="41"/>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -6944,7 +6949,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="41"/>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -6960,7 +6965,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="41"/>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -6976,7 +6981,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="41"/>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -6992,7 +6997,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="41"/>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -7008,7 +7013,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="41"/>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -7024,7 +7029,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="41"/>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -7040,7 +7045,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="41"/>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -7056,7 +7061,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="41"/>
       <c r="B216" s="20"/>
       <c r="C216" s="13"/>
@@ -7072,7 +7077,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="41"/>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -7088,7 +7093,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="41"/>
       <c r="B218" s="20"/>
       <c r="C218" s="13"/>
@@ -7104,7 +7109,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="41"/>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
@@ -7120,7 +7125,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="41"/>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -7136,7 +7141,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="41"/>
       <c r="B221" s="20"/>
       <c r="C221" s="13"/>
@@ -7152,7 +7157,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="41"/>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
@@ -7168,7 +7173,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="41"/>
       <c r="B223" s="20"/>
       <c r="C223" s="13"/>
@@ -7184,7 +7189,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="41"/>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
@@ -7200,7 +7205,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="41"/>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
@@ -7216,7 +7221,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="41"/>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -7232,7 +7237,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="41"/>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -7248,7 +7253,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="41"/>
       <c r="B228" s="20"/>
       <c r="C228" s="13"/>
@@ -7264,7 +7269,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="41"/>
       <c r="B229" s="20"/>
       <c r="C229" s="13"/>
@@ -7280,7 +7285,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="41"/>
       <c r="B230" s="20"/>
       <c r="C230" s="13"/>
@@ -7296,7 +7301,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="41"/>
       <c r="B231" s="20"/>
       <c r="C231" s="13"/>
@@ -7312,7 +7317,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="41"/>
       <c r="B232" s="20"/>
       <c r="C232" s="13"/>
@@ -7328,7 +7333,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="41"/>
       <c r="B233" s="20"/>
       <c r="C233" s="13"/>
@@ -7344,7 +7349,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="41"/>
       <c r="B234" s="20"/>
       <c r="C234" s="13"/>
@@ -7360,7 +7365,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="41"/>
       <c r="B235" s="20"/>
       <c r="C235" s="13"/>
@@ -7376,7 +7381,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="41"/>
       <c r="B236" s="20"/>
       <c r="C236" s="13"/>
@@ -7392,7 +7397,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="41"/>
       <c r="B237" s="20"/>
       <c r="C237" s="13"/>
@@ -7408,7 +7413,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="41"/>
       <c r="B238" s="20"/>
       <c r="C238" s="13"/>
@@ -7424,7 +7429,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="41"/>
       <c r="B239" s="20"/>
       <c r="C239" s="13"/>
@@ -7440,7 +7445,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="41"/>
       <c r="B240" s="20"/>
       <c r="C240" s="13"/>
@@ -7456,7 +7461,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="41"/>
       <c r="B241" s="20"/>
       <c r="C241" s="13"/>
@@ -7472,7 +7477,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="41"/>
       <c r="B242" s="20"/>
       <c r="C242" s="13"/>
@@ -7488,7 +7493,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="41"/>
       <c r="B243" s="20"/>
       <c r="C243" s="13"/>
@@ -7504,7 +7509,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="41"/>
       <c r="B244" s="20"/>
       <c r="C244" s="13"/>
@@ -7520,7 +7525,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="41"/>
       <c r="B245" s="20"/>
       <c r="C245" s="13"/>
@@ -7536,7 +7541,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="41"/>
       <c r="B246" s="20"/>
       <c r="C246" s="13"/>
@@ -7552,7 +7557,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="41"/>
       <c r="B247" s="20"/>
       <c r="C247" s="13"/>
@@ -7568,7 +7573,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="41"/>
       <c r="B248" s="20"/>
       <c r="C248" s="13"/>
@@ -7584,7 +7589,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="41"/>
       <c r="B249" s="20"/>
       <c r="C249" s="13"/>
@@ -7600,7 +7605,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="41"/>
       <c r="B250" s="20"/>
       <c r="C250" s="13"/>
@@ -7616,7 +7621,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="41"/>
       <c r="B251" s="20"/>
       <c r="C251" s="13"/>
@@ -7632,7 +7637,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="41"/>
       <c r="B252" s="20"/>
       <c r="C252" s="13"/>
@@ -7648,7 +7653,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="41"/>
       <c r="B253" s="20"/>
       <c r="C253" s="13"/>
@@ -7664,7 +7669,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="41"/>
       <c r="B254" s="20"/>
       <c r="C254" s="13"/>
@@ -7680,7 +7685,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="41"/>
       <c r="B255" s="20"/>
       <c r="C255" s="13"/>
@@ -7696,7 +7701,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="41"/>
       <c r="B256" s="20"/>
       <c r="C256" s="13"/>
@@ -7712,7 +7717,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="41"/>
       <c r="B257" s="20"/>
       <c r="C257" s="13"/>
@@ -7728,7 +7733,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="41"/>
       <c r="B258" s="20"/>
       <c r="C258" s="13"/>
@@ -7744,7 +7749,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="41"/>
       <c r="B259" s="20"/>
       <c r="C259" s="13"/>
@@ -7760,7 +7765,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="41"/>
       <c r="B260" s="20"/>
       <c r="C260" s="13"/>
@@ -7776,7 +7781,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="41"/>
       <c r="B261" s="20"/>
       <c r="C261" s="13"/>
@@ -7792,7 +7797,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="41"/>
       <c r="B262" s="20"/>
       <c r="C262" s="13"/>
@@ -7808,7 +7813,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="41"/>
       <c r="B263" s="20"/>
       <c r="C263" s="13"/>
@@ -7824,7 +7829,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="41"/>
       <c r="B264" s="20"/>
       <c r="C264" s="13"/>
@@ -7840,7 +7845,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="41"/>
       <c r="B265" s="20"/>
       <c r="C265" s="13"/>
@@ -7856,7 +7861,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="41"/>
       <c r="B266" s="20"/>
       <c r="C266" s="13"/>
@@ -7872,7 +7877,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="41"/>
       <c r="B267" s="20"/>
       <c r="C267" s="13"/>
@@ -7888,7 +7893,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="41"/>
       <c r="B268" s="20"/>
       <c r="C268" s="13"/>
@@ -7904,7 +7909,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="42"/>
       <c r="B269" s="15"/>
       <c r="C269" s="43"/>
@@ -7935,10 +7940,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7961,34 +7966,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4788" topLeftCell="A70" activePane="bottomLeft"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
+      <selection pane="bottomLeft" activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -8009,7 +8014,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -8027,7 +8032,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -8047,7 +8052,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -8055,7 +8060,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -8068,7 +8073,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -8085,7 +8090,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -8120,7 +8125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -8129,7 +8134,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>24.042000000000002</v>
+        <v>20.042000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -8144,7 +8149,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -8166,7 +8171,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>43101</v>
       </c>
@@ -8190,7 +8195,7 @@
         <v>43130</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>43160</v>
       </c>
@@ -8214,7 +8219,7 @@
         <v>43160</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="42"/>
       <c r="B13" s="15" t="s">
         <v>48</v>
@@ -8236,7 +8241,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="41">
         <v>43221</v>
       </c>
@@ -8260,7 +8265,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="20" t="s">
         <v>50</v>
@@ -8280,7 +8285,7 @@
         <v>43244</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -8302,7 +8307,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="41"/>
       <c r="B17" s="20" t="s">
         <v>46</v>
@@ -8324,7 +8329,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <v>43282</v>
       </c>
@@ -8348,7 +8353,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="41"/>
       <c r="B19" s="20" t="s">
         <v>53</v>
@@ -8370,7 +8375,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41"/>
       <c r="B20" s="20" t="s">
         <v>45</v>
@@ -8392,7 +8397,7 @@
         <v>43302</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>
       <c r="B21" s="20" t="s">
         <v>48</v>
@@ -8414,7 +8419,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>43313</v>
       </c>
@@ -8438,7 +8443,7 @@
         <v>43340</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="41">
         <v>43344</v>
       </c>
@@ -8462,7 +8467,7 @@
         <v>43368</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <v>43374</v>
       </c>
@@ -8486,7 +8491,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <v>43405</v>
       </c>
@@ -8510,7 +8515,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="41"/>
       <c r="B26" s="20" t="s">
         <v>61</v>
@@ -8532,7 +8537,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="41">
         <v>43435</v>
       </c>
@@ -8556,7 +8561,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="s">
         <v>64</v>
       </c>
@@ -8574,7 +8579,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="41">
         <v>43497</v>
       </c>
@@ -8596,7 +8601,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>43525</v>
       </c>
@@ -8620,7 +8625,7 @@
         <v>43542</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="41">
         <v>43586</v>
       </c>
@@ -8644,7 +8649,7 @@
         <v>43606</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <v>43617</v>
       </c>
@@ -8666,7 +8671,7 @@
         <v>43638</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
         <v>43678</v>
       </c>
@@ -8690,7 +8695,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="20" t="s">
         <v>50</v>
@@ -8710,7 +8715,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <v>43709</v>
       </c>
@@ -8734,7 +8739,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="41">
         <v>43739</v>
       </c>
@@ -8758,7 +8763,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
       <c r="B37" s="20" t="s">
         <v>45</v>
@@ -8780,7 +8785,7 @@
         <v>43760</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="41">
         <v>43770</v>
       </c>
@@ -8804,7 +8809,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="41"/>
       <c r="B39" s="20" t="s">
         <v>53</v>
@@ -8824,7 +8829,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
       <c r="B40" s="20" t="s">
         <v>45</v>
@@ -8846,7 +8851,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
       <c r="B41" s="20" t="s">
         <v>45</v>
@@ -8868,7 +8873,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
         <v>66</v>
       </c>
@@ -8886,7 +8891,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="41">
         <v>43862</v>
       </c>
@@ -8908,7 +8913,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
       <c r="B44" s="20" t="s">
         <v>51</v>
@@ -8928,7 +8933,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="41">
         <v>44013</v>
       </c>
@@ -8952,7 +8957,7 @@
         <v>44019</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="41">
         <v>44044</v>
       </c>
@@ -8976,7 +8981,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="41">
         <v>44075</v>
       </c>
@@ -9000,7 +9005,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
       <c r="B48" s="20" t="s">
         <v>70</v>
@@ -9022,7 +9027,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
       <c r="B49" s="20" t="s">
         <v>45</v>
@@ -9044,7 +9049,7 @@
         <v>44103</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="41">
         <v>44105</v>
       </c>
@@ -9066,7 +9071,7 @@
         <v>44131</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="47" t="s">
         <v>74</v>
       </c>
@@ -9084,7 +9089,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="41">
         <v>44197</v>
       </c>
@@ -9108,7 +9113,7 @@
         <v>44215</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="41">
         <v>44228</v>
       </c>
@@ -9132,7 +9137,7 @@
         <v>44244</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="41">
         <v>44378</v>
       </c>
@@ -9154,7 +9159,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="41">
         <v>44440</v>
       </c>
@@ -9176,7 +9181,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="41">
         <v>44470</v>
       </c>
@@ -9198,7 +9203,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="41">
         <v>44531</v>
       </c>
@@ -9222,7 +9227,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="47" t="s">
         <v>82</v>
       </c>
@@ -9240,7 +9245,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="41">
         <v>44562</v>
       </c>
@@ -9264,7 +9269,7 @@
         <v>44588</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="41">
         <v>44652</v>
       </c>
@@ -9288,7 +9293,7 @@
         <v>44659</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="41">
         <v>44682</v>
       </c>
@@ -9312,7 +9317,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
       <c r="B62" s="20" t="s">
         <v>58</v>
@@ -9334,7 +9339,7 @@
         <v>44705</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="41">
         <v>44743</v>
       </c>
@@ -9358,7 +9363,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="41">
         <v>44774</v>
       </c>
@@ -9382,7 +9387,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
       <c r="B65" s="20" t="s">
         <v>50</v>
@@ -9402,7 +9407,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="42">
         <v>44805</v>
       </c>
@@ -9426,7 +9431,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="41">
         <v>44835</v>
       </c>
@@ -9448,7 +9453,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
       <c r="B68" s="20" t="s">
         <v>58</v>
@@ -9470,7 +9475,7 @@
         <v>44853</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="41">
         <v>44866</v>
       </c>
@@ -9494,7 +9499,7 @@
         <v>44889</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
       <c r="B70" s="20" t="s">
         <v>45</v>
@@ -9516,7 +9521,7 @@
         <v>44876</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="41">
         <v>44896</v>
       </c>
@@ -9540,7 +9545,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="41"/>
       <c r="B72" s="20" t="s">
         <v>50</v>
@@ -9560,7 +9565,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="47" t="s">
         <v>93</v>
       </c>
@@ -9578,7 +9583,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="41">
         <v>44927</v>
       </c>
@@ -9602,7 +9607,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="41"/>
       <c r="B75" s="20" t="s">
         <v>46</v>
@@ -9624,7 +9629,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="41"/>
       <c r="B76" s="20" t="s">
         <v>94</v>
@@ -9646,7 +9651,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="41">
         <v>44986</v>
       </c>
@@ -9670,7 +9675,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="41"/>
       <c r="B78" s="20" t="s">
         <v>45</v>
@@ -9692,7 +9697,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="41"/>
       <c r="B79" s="20" t="s">
         <v>50</v>
@@ -9712,7 +9717,7 @@
         <v>45006</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="41"/>
       <c r="B80" s="20" t="s">
         <v>45</v>
@@ -9734,11 +9739,17 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="41"/>
-      <c r="B81" s="20"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="41">
+        <v>45047</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C81" s="13"/>
-      <c r="D81" s="40"/>
+      <c r="D81" s="40">
+        <v>2</v>
+      </c>
       <c r="E81" s="49"/>
       <c r="F81" s="20"/>
       <c r="G81" s="13" t="str">
@@ -9748,13 +9759,21 @@
       <c r="H81" s="40"/>
       <c r="I81" s="49"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="41"/>
-      <c r="B82" s="20"/>
+      <c r="K81" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="41">
+        <v>45078</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C82" s="13"/>
-      <c r="D82" s="40"/>
+      <c r="D82" s="40">
+        <v>2</v>
+      </c>
       <c r="E82" s="49"/>
       <c r="F82" s="20"/>
       <c r="G82" s="13" t="str">
@@ -9764,9 +9783,11 @@
       <c r="H82" s="40"/>
       <c r="I82" s="49"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K82" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="41"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -9782,7 +9803,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="41"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -9798,7 +9819,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="41"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -9814,7 +9835,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="41"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -9830,7 +9851,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="41"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -9846,7 +9867,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="41"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -9862,7 +9883,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="41"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -9878,7 +9899,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="41"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -9894,7 +9915,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="41"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -9910,7 +9931,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="41"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -9926,7 +9947,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="41"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -9942,7 +9963,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="41"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -9958,7 +9979,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="41"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -9974,7 +9995,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="41"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -9990,7 +10011,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="41"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -10006,7 +10027,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="41"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -10022,7 +10043,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="41"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -10038,7 +10059,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="41"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -10054,7 +10075,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="41"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -10070,7 +10091,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="41"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -10086,7 +10107,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="41"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -10102,7 +10123,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="41"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -10118,7 +10139,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="41"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -10134,7 +10155,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="41"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -10150,7 +10171,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="41"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -10166,7 +10187,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="41"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -10182,7 +10203,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="41"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -10198,7 +10219,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="41"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -10214,7 +10235,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="41"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -10230,7 +10251,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="41"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -10246,7 +10267,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="41"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -10262,7 +10283,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="41"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -10278,7 +10299,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="41"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -10294,7 +10315,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="41"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -10310,7 +10331,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="41"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -10326,7 +10347,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="41"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -10342,7 +10363,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="41"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -10358,7 +10379,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="41"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -10374,7 +10395,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="41"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -10390,7 +10411,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="41"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -10406,7 +10427,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="41"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -10422,7 +10443,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="41"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -10438,7 +10459,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="41"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -10454,7 +10475,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="41"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -10470,7 +10491,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="41"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -10486,7 +10507,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="41"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -10502,7 +10523,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="41"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -10518,7 +10539,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -10534,7 +10555,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="41"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -10550,7 +10571,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="41"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -10566,7 +10587,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="41"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -10582,7 +10603,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="41"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -10598,7 +10619,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="41"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -10614,7 +10635,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="41"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -10630,7 +10651,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="41"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -10646,7 +10667,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="41"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -10662,7 +10683,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="41"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -10678,7 +10699,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="41"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -10694,7 +10715,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="41"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -10710,7 +10731,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="41"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -10726,7 +10747,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="41"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -10742,7 +10763,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="41"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -10758,7 +10779,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="41"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -10774,7 +10795,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="41"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -10790,7 +10811,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="41"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -10806,7 +10827,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="41"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -10822,7 +10843,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="41"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -10838,7 +10859,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="41"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -10854,7 +10875,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="41"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -10870,7 +10891,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="41"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -10886,7 +10907,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="41"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -10902,7 +10923,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="41"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -10918,7 +10939,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="41"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -10934,7 +10955,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="41"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -10950,7 +10971,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="41"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -10966,7 +10987,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="41"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -10982,7 +11003,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="41"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -10998,7 +11019,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="41"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -11014,7 +11035,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="41"/>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -11030,7 +11051,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="41"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -11046,7 +11067,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="41"/>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -11062,7 +11083,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="41"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -11078,7 +11099,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="41"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -11094,7 +11115,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="41"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -11110,7 +11131,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="41"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -11126,7 +11147,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="41"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -11142,7 +11163,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="41"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -11158,7 +11179,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="41"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -11174,7 +11195,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="41"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -11190,7 +11211,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="41"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -11206,7 +11227,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="41"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -11222,7 +11243,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="41"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -11238,7 +11259,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="41"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -11254,7 +11275,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="41"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -11270,7 +11291,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="41"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -11286,7 +11307,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="41"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -11302,7 +11323,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="41"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -11318,7 +11339,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="41"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -11334,7 +11355,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="41"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -11350,7 +11371,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="41"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -11366,7 +11387,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="41"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -11382,7 +11403,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="41"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -11398,7 +11419,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="41"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -11414,7 +11435,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="41"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -11430,7 +11451,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="41"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -11446,7 +11467,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="41"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -11462,7 +11483,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="41"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -11478,7 +11499,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="41"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -11494,7 +11515,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="41"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -11510,7 +11531,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="41"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -11526,7 +11547,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="41"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -11542,7 +11563,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="41"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -11558,7 +11579,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="41"/>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -11574,7 +11595,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="41"/>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -11590,7 +11611,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="41"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -11606,7 +11627,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="41"/>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -11622,7 +11643,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="41"/>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -11638,7 +11659,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="42"/>
       <c r="B200" s="15"/>
       <c r="C200" s="43"/>
@@ -11656,23 +11677,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11695,28 +11716,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="38" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="38" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -11729,7 +11750,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11758,7 +11779,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>66.042000000000002</v>
       </c>
@@ -11782,7 +11803,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0</v>
@@ -11797,10 +11818,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="39" t="s">
         <v>28</v>
       </c>
@@ -11820,7 +11841,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="38">
         <v>1</v>
       </c>
@@ -11846,7 +11867,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="38">
         <v>2</v>
       </c>
@@ -11872,7 +11893,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="38">
         <v>3</v>
       </c>
@@ -11898,7 +11919,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="38">
         <v>4</v>
       </c>
@@ -11924,7 +11945,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="38">
         <v>5</v>
       </c>
@@ -11950,7 +11971,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="38">
         <v>6</v>
       </c>
@@ -11976,7 +11997,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="38">
         <v>7</v>
       </c>
@@ -12002,7 +12023,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="38">
         <v>8</v>
       </c>
@@ -12028,7 +12049,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="38">
         <v>9</v>
       </c>
@@ -12048,7 +12069,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="38">
         <v>10</v>
       </c>
@@ -12068,7 +12089,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="38">
         <v>11</v>
       </c>
@@ -12088,7 +12109,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="38">
         <v>12</v>
       </c>
@@ -12109,7 +12130,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="38">
         <v>13</v>
       </c>
@@ -12130,7 +12151,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="38">
         <v>14</v>
       </c>
@@ -12151,7 +12172,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="38">
         <v>15</v>
       </c>
@@ -12172,7 +12193,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="38">
         <v>16</v>
       </c>
@@ -12193,7 +12214,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="38">
         <v>17</v>
       </c>
@@ -12214,7 +12235,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="38">
         <v>18</v>
       </c>
@@ -12235,7 +12256,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="38">
         <v>19</v>
       </c>
@@ -12256,7 +12277,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="38">
         <v>20</v>
       </c>
@@ -12277,7 +12298,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="38">
         <v>21</v>
       </c>
@@ -12298,7 +12319,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="38">
         <v>22</v>
       </c>
@@ -12319,7 +12340,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="38">
         <v>23</v>
       </c>
@@ -12340,7 +12361,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="38">
         <v>24</v>
       </c>
@@ -12361,7 +12382,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="38">
         <v>25</v>
       </c>
@@ -12382,7 +12403,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="38">
         <v>26</v>
       </c>
@@ -12403,7 +12424,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="38">
         <v>27</v>
       </c>
@@ -12424,7 +12445,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="38">
         <v>28</v>
       </c>
@@ -12445,7 +12466,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="38">
         <v>29</v>
       </c>
@@ -12466,7 +12487,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="38">
         <v>30</v>
       </c>
@@ -12487,7 +12508,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="38">
         <v>31</v>
       </c>
@@ -12508,7 +12529,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="38">
         <v>32</v>
       </c>
@@ -12517,7 +12538,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="38">
         <v>33</v>
       </c>
@@ -12526,7 +12547,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="38">
         <v>34</v>
       </c>
@@ -12535,7 +12556,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="38">
         <v>35</v>
       </c>
@@ -12544,7 +12565,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="38">
         <v>36</v>
       </c>
@@ -12553,7 +12574,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="38">
         <v>37</v>
       </c>
@@ -12562,7 +12583,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="38">
         <v>38</v>
       </c>
@@ -12571,7 +12592,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="38">
         <v>39</v>
       </c>
@@ -12580,7 +12601,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="38">
         <v>40</v>
       </c>
@@ -12589,7 +12610,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="38">
         <v>41</v>
       </c>
@@ -12598,7 +12619,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="38">
         <v>42</v>
       </c>
@@ -12607,7 +12628,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="38">
         <v>43</v>
       </c>
@@ -12616,7 +12637,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="38">
         <v>44</v>
       </c>
@@ -12625,7 +12646,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="38">
         <v>45</v>
       </c>
@@ -12634,7 +12655,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="38">
         <v>46</v>
       </c>
@@ -12643,7 +12664,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="38">
         <v>47</v>
       </c>
@@ -12652,7 +12673,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="38">
         <v>48</v>
       </c>
@@ -12661,7 +12682,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="38">
         <v>49</v>
       </c>
@@ -12670,7 +12691,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="38">
         <v>50</v>
       </c>
@@ -12679,7 +12700,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="38">
         <v>51</v>
       </c>
@@ -12688,7 +12709,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="38">
         <v>52</v>
       </c>
@@ -12697,7 +12718,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="38">
         <v>53</v>
       </c>
@@ -12706,7 +12727,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="38">
         <v>54</v>
       </c>
@@ -12715,7 +12736,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="38">
         <v>55</v>
       </c>
@@ -12724,7 +12745,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="38">
         <v>56</v>
       </c>
@@ -12733,7 +12754,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="38">
         <v>57</v>
       </c>
@@ -12742,7 +12763,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="38">
         <v>58</v>
       </c>
@@ -12751,7 +12772,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="38">
         <v>59</v>
       </c>
@@ -12760,7 +12781,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="38">
         <v>60</v>
       </c>
@@ -12769,7 +12790,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/DIMAANO, LEOVIGILDA ANGCAYA.xlsx
+++ b/DIMAANO, LEOVIGILDA ANGCAYA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D6960C-D267-4CEC-B8B0-5D0EAD8A9B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="5" r:id="rId1"/>
@@ -29,7 +30,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="100">
   <si>
     <t>PERIOD</t>
   </si>
@@ -344,7 +345,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1272,7 +1273,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{68AD954A-7DD0-44FF-AB11-86F01056025D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68AD954A-7DD0-44FF-AB11-86F01056025D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1315,7 +1316,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9734F851-CE56-4EDF-9EF1-953EE5DBE251}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9734F851-CE56-4EDF-9EF1-953EE5DBE251}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1379,7 +1380,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F20BBBF6-75FF-4CBE-ACA6-861D3D1E7806}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F20BBBF6-75FF-4CBE-ACA6-861D3D1E7806}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1439,7 +1440,7 @@
         <xdr:cNvPr id="5" name="Oval 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D946256-EBA3-4C5E-AE90-878D5CCD71A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D946256-EBA3-4C5E-AE90-878D5CCD71A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1505,7 +1506,7 @@
         <xdr:cNvPr id="6" name="Arrow: Left-Right 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E3A2BDE-476B-4DD9-9E27-446EC9F2235E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E3A2BDE-476B-4DD9-9E27-446EC9F2235E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1568,7 +1569,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4DBE5C18-7CCB-4DF4-B046-F8228CD70B27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DBE5C18-7CCB-4DF4-B046-F8228CD70B27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1666,7 +1667,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82624F04-EE7B-4FCB-9116-9D70AD30C87C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82624F04-EE7B-4FCB-9116-9D70AD30C87C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1725,7 +1726,7 @@
         <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C14E1DB5-CA39-407E-9D7F-F15CAEC7010D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C14E1DB5-CA39-407E-9D7F-F15CAEC7010D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1790,7 +1791,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F62F5BC-A343-4F32-BDC2-D47ECC0CCE92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F62F5BC-A343-4F32-BDC2-D47ECC0CCE92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1833,7 +1834,7 @@
         <xdr:cNvPr id="11" name="TextBox 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2DB27CA2-2552-44E6-A70A-046BB421FD07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DB27CA2-2552-44E6-A70A-046BB421FD07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1908,7 +1909,7 @@
         <xdr:cNvPr id="12" name="TextBox 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8909640B-E004-43FC-ABD8-AE5736852DDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8909640B-E004-43FC-ABD8-AE5736852DDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2094,7 +2095,7 @@
         <xdr:cNvPr id="13" name="Oval 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E20CC74B-D16E-44AB-8CBC-F2E8E6BAF9B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E20CC74B-D16E-44AB-8CBC-F2E8E6BAF9B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2160,7 +2161,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0366E899-0AE8-4DB2-AF27-0D5D4E430ECE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0366E899-0AE8-4DB2-AF27-0D5D4E430ECE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2218,7 +2219,7 @@
         <xdr:cNvPr id="15" name="Oval 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3DB812C1-23F7-4585-97FF-0895CE7B771F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DB812C1-23F7-4585-97FF-0895CE7B771F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2284,7 +2285,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F12B1D48-77ED-4828-9B15-4F15CF7CC202}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12B1D48-77ED-4828-9B15-4F15CF7CC202}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2340,7 +2341,7 @@
         <xdr:cNvPr id="17" name="TextBox 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{889682BF-D44A-4475-9B2D-5ED8A675DCF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{889682BF-D44A-4475-9B2D-5ED8A675DCF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2415,7 +2416,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DFCE4D25-2139-496B-845E-126AABE113D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFCE4D25-2139-496B-845E-126AABE113D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2458,7 +2459,7 @@
         <xdr:cNvPr id="19" name="Oval 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F84D279C-7E4C-4B53-85A5-A21A8FE39F8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F84D279C-7E4C-4B53-85A5-A21A8FE39F8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2524,7 +2525,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2129D637-A52B-4CD3-B274-97910BC7E60D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2129D637-A52B-4CD3-B274-97910BC7E60D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2580,7 +2581,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D6AFE9D-0D0D-4B8C-AC0C-2BD2F4978AA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D6AFE9D-0D0D-4B8C-AC0C-2BD2F4978AA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2659,7 +2660,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2676,7 +2677,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="INSTRUCTION"/>
@@ -2697,25 +2698,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K269" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K269" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2727,25 +2728,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K200" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K200" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3052,7 +3053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3062,7 +3063,7 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3070,34 +3071,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K269"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3585" topLeftCell="A67" activePane="bottomLeft"/>
+      <pane ySplit="3588" topLeftCell="A78" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="G85" sqref="G85"/>
+      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3118,7 +3119,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3136,7 +3137,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3156,7 +3157,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3164,7 +3165,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3177,7 +3178,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3194,7 +3195,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3229,7 +3230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3238,7 +3239,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>57.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3248,12 +3249,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>82.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -3273,7 +3274,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="41">
         <v>43101</v>
       </c>
@@ -3293,7 +3294,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="48"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="41">
         <v>43132</v>
       </c>
@@ -3319,7 +3320,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="41">
         <v>43160</v>
       </c>
@@ -3339,7 +3340,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="41">
         <v>43191</v>
       </c>
@@ -3359,7 +3360,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="41">
         <v>43221</v>
       </c>
@@ -3379,7 +3380,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="48"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -3399,7 +3400,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="41">
         <v>43282</v>
       </c>
@@ -3419,7 +3420,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="41">
         <v>43313</v>
       </c>
@@ -3439,7 +3440,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <v>43344</v>
       </c>
@@ -3459,7 +3460,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="48"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <v>43374</v>
       </c>
@@ -3479,7 +3480,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="48"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <v>43405</v>
       </c>
@@ -3499,7 +3500,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <v>43435</v>
       </c>
@@ -3519,7 +3520,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>64</v>
       </c>
@@ -3537,7 +3538,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <v>43466</v>
       </c>
@@ -3557,7 +3558,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="41">
         <v>43497</v>
       </c>
@@ -3577,7 +3578,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="41">
         <v>43525</v>
       </c>
@@ -3597,7 +3598,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="41">
         <v>43556</v>
       </c>
@@ -3617,7 +3618,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="48"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="41">
         <v>43586</v>
       </c>
@@ -3637,7 +3638,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="41">
         <v>43617</v>
       </c>
@@ -3657,7 +3658,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="41">
         <v>43647</v>
       </c>
@@ -3677,7 +3678,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="48"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="41">
         <v>43678</v>
       </c>
@@ -3703,7 +3704,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="41">
         <v>43709</v>
       </c>
@@ -3729,7 +3730,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="41">
         <v>43739</v>
       </c>
@@ -3755,7 +3756,7 @@
         <v>43762</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="41">
         <v>43770</v>
       </c>
@@ -3775,7 +3776,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="41">
         <v>43800</v>
       </c>
@@ -3801,7 +3802,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
         <v>66</v>
       </c>
@@ -3819,7 +3820,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="41">
         <v>43831</v>
       </c>
@@ -3839,7 +3840,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="41">
         <v>43862</v>
       </c>
@@ -3859,7 +3860,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="41">
         <v>43891</v>
       </c>
@@ -3879,7 +3880,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="41">
         <v>43922</v>
       </c>
@@ -3899,7 +3900,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="41">
         <v>43952</v>
       </c>
@@ -3919,7 +3920,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="41">
         <v>43983</v>
       </c>
@@ -3939,7 +3940,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="41">
         <v>44013</v>
       </c>
@@ -3959,7 +3960,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="41">
         <v>44044</v>
       </c>
@@ -3985,7 +3986,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="41">
         <v>44075</v>
       </c>
@@ -4005,7 +4006,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="48"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="41">
         <v>44105</v>
       </c>
@@ -4031,7 +4032,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="41">
         <v>44136</v>
       </c>
@@ -4051,7 +4052,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="41">
         <v>44166</v>
       </c>
@@ -4071,7 +4072,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="48"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="47" t="s">
         <v>74</v>
       </c>
@@ -4089,7 +4090,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="48"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="41">
         <v>44197</v>
       </c>
@@ -4109,7 +4110,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="41">
         <v>44228</v>
       </c>
@@ -4133,7 +4134,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="48"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="41">
         <v>44256</v>
       </c>
@@ -4153,7 +4154,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="41">
         <v>44287</v>
       </c>
@@ -4173,7 +4174,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="41">
         <v>44317</v>
       </c>
@@ -4193,7 +4194,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="48"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="41">
         <v>44348</v>
       </c>
@@ -4213,7 +4214,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="48"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="41">
         <v>44378</v>
       </c>
@@ -4233,7 +4234,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="48"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="41">
         <v>44409</v>
       </c>
@@ -4253,7 +4254,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="41">
         <v>44440</v>
       </c>
@@ -4273,7 +4274,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="41">
         <v>44470</v>
       </c>
@@ -4299,7 +4300,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="41">
         <v>44501</v>
       </c>
@@ -4319,7 +4320,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="41">
         <v>44531</v>
       </c>
@@ -4339,7 +4340,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="48"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="47" t="s">
         <v>82</v>
       </c>
@@ -4357,7 +4358,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="48"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="41">
         <v>44562</v>
       </c>
@@ -4377,7 +4378,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="48"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="41">
         <v>44593</v>
       </c>
@@ -4397,7 +4398,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="48"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="41">
         <v>44621</v>
       </c>
@@ -4417,7 +4418,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="41">
         <v>44652</v>
       </c>
@@ -4443,7 +4444,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="41">
         <v>44682</v>
       </c>
@@ -4463,7 +4464,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="41">
         <v>44713</v>
       </c>
@@ -4483,7 +4484,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="48"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="41">
         <v>44743</v>
       </c>
@@ -4503,7 +4504,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="48"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="41">
         <v>44774</v>
       </c>
@@ -4523,7 +4524,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="41">
         <v>44805</v>
       </c>
@@ -4543,7 +4544,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="48"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="41">
         <v>44835</v>
       </c>
@@ -4563,7 +4564,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="41">
         <v>44866</v>
       </c>
@@ -4583,7 +4584,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="41">
         <v>44896</v>
       </c>
@@ -4609,7 +4610,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="47" t="s">
         <v>93</v>
       </c>
@@ -4627,9 +4628,9 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="41">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13">
@@ -4647,9 +4648,9 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="41">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13">
@@ -4667,9 +4668,9 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="41">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13">
@@ -4687,63 +4688,71 @@
       <c r="J78" s="11"/>
       <c r="K78" s="48"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="41">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="40"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="40"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="41">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="40"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="40"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="41">
-        <v>45078</v>
+        <v>45107</v>
       </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="40"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="40"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K81" s="48">
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="41">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4759,9 +4768,9 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="41">
-        <v>45139</v>
+        <v>45169</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4777,9 +4786,9 @@
       <c r="J83" s="11"/>
       <c r="K83" s="48"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="41">
-        <v>45170</v>
+        <v>45199</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4795,9 +4804,9 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="41">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4813,9 +4822,9 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="41">
-        <v>45231</v>
+        <v>45260</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4831,9 +4840,9 @@
       <c r="J86" s="11"/>
       <c r="K86" s="48"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="41">
-        <v>45261</v>
+        <v>45291</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4849,9 +4858,9 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="41">
-        <v>45292</v>
+        <v>45322</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4867,9 +4876,9 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="41">
-        <v>45323</v>
+        <v>45351</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4885,9 +4894,9 @@
       <c r="J89" s="11"/>
       <c r="K89" s="48"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="41">
-        <v>45352</v>
+        <v>45382</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4903,9 +4912,9 @@
       <c r="J90" s="11"/>
       <c r="K90" s="48"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="41">
-        <v>45383</v>
+        <v>45412</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4921,9 +4930,9 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="41">
-        <v>45413</v>
+        <v>45443</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4939,9 +4948,9 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="41">
-        <v>45444</v>
+        <v>45473</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4957,9 +4966,9 @@
       <c r="J93" s="11"/>
       <c r="K93" s="48"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="41">
-        <v>45474</v>
+        <v>45504</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4975,9 +4984,9 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="41">
-        <v>45505</v>
+        <v>45535</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4993,9 +5002,9 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="41">
-        <v>45536</v>
+        <v>45565</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5011,9 +5020,9 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="41">
-        <v>45566</v>
+        <v>45596</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5029,9 +5038,9 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="41">
-        <v>45597</v>
+        <v>45626</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5047,9 +5056,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="48"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="41">
-        <v>45627</v>
+        <v>45657</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5065,9 +5074,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="41">
-        <v>45658</v>
+        <v>45688</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5083,9 +5092,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="48"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="41">
-        <v>45689</v>
+        <v>45716</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5101,9 +5110,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="41">
-        <v>45717</v>
+        <v>45747</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5119,9 +5128,9 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="41">
-        <v>45748</v>
+        <v>45777</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5137,9 +5146,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="41">
-        <v>45778</v>
+        <v>45808</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5155,9 +5164,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="41">
-        <v>45809</v>
+        <v>45838</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5173,9 +5182,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="41">
-        <v>45839</v>
+        <v>45869</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5191,9 +5200,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="41">
-        <v>45870</v>
+        <v>45900</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5209,9 +5218,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="41">
-        <v>45901</v>
+        <v>45930</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5227,9 +5236,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="41">
-        <v>45931</v>
+        <v>45961</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5245,9 +5254,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="41">
-        <v>45962</v>
+        <v>45991</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5263,9 +5272,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="41">
-        <v>45992</v>
+        <v>46022</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5281,9 +5290,9 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="41">
-        <v>46023</v>
+        <v>46053</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5299,9 +5308,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="41">
-        <v>46054</v>
+        <v>46081</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5317,9 +5326,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="41">
-        <v>46082</v>
+        <v>46112</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5335,9 +5344,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="41">
-        <v>46113</v>
+        <v>46142</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5353,9 +5362,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="41">
-        <v>46143</v>
+        <v>46173</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5371,9 +5380,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="41">
-        <v>46174</v>
+        <v>46203</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5389,9 +5398,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="41">
-        <v>46204</v>
+        <v>46234</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5407,9 +5416,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="48"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="41">
-        <v>46235</v>
+        <v>46265</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5425,9 +5434,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="41">
-        <v>46266</v>
+        <v>46295</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5443,9 +5452,9 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="41">
-        <v>46296</v>
+        <v>46326</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5461,9 +5470,9 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="41">
-        <v>46327</v>
+        <v>46356</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5479,9 +5488,9 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="41">
-        <v>46357</v>
+        <v>46387</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5497,9 +5506,9 @@
       <c r="J123" s="11"/>
       <c r="K123" s="48"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="41">
-        <v>46388</v>
+        <v>46418</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5515,9 +5524,9 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="41">
-        <v>46419</v>
+        <v>46446</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5533,9 +5542,9 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="41">
-        <v>46447</v>
+        <v>46477</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5551,9 +5560,9 @@
       <c r="J126" s="11"/>
       <c r="K126" s="48"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="41">
-        <v>46478</v>
+        <v>46507</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5569,9 +5578,9 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="41">
-        <v>46508</v>
+        <v>46538</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5587,9 +5596,9 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="41">
-        <v>46539</v>
+        <v>46568</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5605,9 +5614,9 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="41">
-        <v>46569</v>
+        <v>46599</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5623,9 +5632,9 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="41">
-        <v>46600</v>
+        <v>46630</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5641,9 +5650,9 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="41">
-        <v>46631</v>
+        <v>46660</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5659,9 +5668,9 @@
       <c r="J132" s="11"/>
       <c r="K132" s="48"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="41">
-        <v>46661</v>
+        <v>46691</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5677,9 +5686,9 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="41">
-        <v>46692</v>
+        <v>46721</v>
       </c>
       <c r="B134" s="15"/>
       <c r="C134" s="13"/>
@@ -5695,9 +5704,9 @@
       <c r="J134" s="12"/>
       <c r="K134" s="15"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="41">
-        <v>46722</v>
+        <v>46752</v>
       </c>
       <c r="B135" s="15"/>
       <c r="C135" s="13"/>
@@ -5713,9 +5722,9 @@
       <c r="J135" s="12"/>
       <c r="K135" s="15"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="41">
-        <v>46753</v>
+        <v>46783</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5731,9 +5740,9 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="41">
-        <v>46784</v>
+        <v>46812</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5749,9 +5758,9 @@
       <c r="J137" s="11"/>
       <c r="K137" s="48"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="41">
-        <v>46813</v>
+        <v>46843</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5767,9 +5776,9 @@
       <c r="J138" s="11"/>
       <c r="K138" s="48"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="41">
-        <v>46844</v>
+        <v>46873</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5785,9 +5794,9 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="41">
-        <v>46874</v>
+        <v>46904</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5803,9 +5812,9 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="41">
-        <v>46905</v>
+        <v>46934</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5821,9 +5830,9 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="41">
-        <v>46935</v>
+        <v>46965</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5839,9 +5848,9 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="41">
-        <v>46966</v>
+        <v>46996</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5857,9 +5866,9 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="41">
-        <v>46997</v>
+        <v>47026</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5875,9 +5884,9 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="41">
-        <v>47027</v>
+        <v>47057</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -5893,9 +5902,9 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="41">
-        <v>47058</v>
+        <v>47087</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -5911,9 +5920,9 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="41">
-        <v>47088</v>
+        <v>47118</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -5929,9 +5938,9 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="41">
-        <v>47119</v>
+        <v>47149</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -5947,9 +5956,9 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="41">
-        <v>47150</v>
+        <v>47177</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -5965,9 +5974,9 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="41">
-        <v>47178</v>
+        <v>47208</v>
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -5983,9 +5992,9 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="41">
-        <v>47209</v>
+        <v>47238</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -6001,9 +6010,9 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="41">
-        <v>47239</v>
+        <v>47269</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -6019,9 +6028,9 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="41">
-        <v>47270</v>
+        <v>47299</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -6037,9 +6046,9 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="41">
-        <v>47300</v>
+        <v>47330</v>
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -6055,9 +6064,9 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="41">
-        <v>47331</v>
+        <v>47361</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -6073,9 +6082,9 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="41">
-        <v>47362</v>
+        <v>47391</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -6091,9 +6100,9 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="41">
-        <v>47392</v>
+        <v>47422</v>
       </c>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -6109,9 +6118,9 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="41">
-        <v>47423</v>
+        <v>47452</v>
       </c>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -6127,9 +6136,9 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="41">
-        <v>47453</v>
+        <v>47483</v>
       </c>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -6145,9 +6154,9 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="41">
-        <v>47484</v>
+        <v>47514</v>
       </c>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -6163,9 +6172,9 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="41">
-        <v>47515</v>
+        <v>47542</v>
       </c>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -6181,9 +6190,9 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="41">
-        <v>47543</v>
+        <v>47573</v>
       </c>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -6199,9 +6208,9 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="41">
-        <v>47574</v>
+        <v>47603</v>
       </c>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -6217,9 +6226,9 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="41">
-        <v>47604</v>
+        <v>47634</v>
       </c>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -6235,9 +6244,9 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="41">
-        <v>47635</v>
+        <v>47664</v>
       </c>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -6253,9 +6262,9 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="41">
-        <v>47665</v>
+        <v>47695</v>
       </c>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -6271,9 +6280,9 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="41">
-        <v>47696</v>
+        <v>47726</v>
       </c>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -6289,9 +6298,9 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="41">
-        <v>47727</v>
+        <v>47756</v>
       </c>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -6307,9 +6316,9 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="41">
-        <v>47757</v>
+        <v>47787</v>
       </c>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -6325,7 +6334,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="41"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -6341,7 +6350,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="41"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -6357,7 +6366,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="41"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -6373,7 +6382,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="41"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -6389,7 +6398,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="41"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -6405,7 +6414,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="41"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -6421,7 +6430,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="41"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -6437,7 +6446,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="41"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -6453,7 +6462,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="41"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -6469,7 +6478,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="41"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -6485,7 +6494,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="41"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -6501,7 +6510,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="41"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -6517,7 +6526,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="41"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -6533,7 +6542,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="41"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -6549,7 +6558,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="41"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -6565,7 +6574,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="41"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -6581,7 +6590,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="41"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -6597,7 +6606,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="41"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -6613,7 +6622,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="41"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -6629,7 +6638,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="41"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -6645,7 +6654,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="41"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -6661,7 +6670,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="41"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -6677,7 +6686,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="41"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -6693,7 +6702,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="41"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -6709,7 +6718,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="41"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -6725,7 +6734,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="41"/>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -6741,7 +6750,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="41"/>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -6757,7 +6766,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="41"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -6773,7 +6782,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="41"/>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -6789,7 +6798,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="41"/>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -6805,7 +6814,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="41"/>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -6821,7 +6830,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="41"/>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -6837,7 +6846,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="41"/>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -6853,7 +6862,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="41"/>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -6869,7 +6878,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="41"/>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -6885,7 +6894,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="41"/>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
@@ -6901,7 +6910,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="41"/>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -6917,7 +6926,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="41"/>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -6933,7 +6942,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="41"/>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -6949,7 +6958,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="41"/>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -6965,7 +6974,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="41"/>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -6981,7 +6990,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="41"/>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -6997,7 +7006,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="41"/>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -7013,7 +7022,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="41"/>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -7029,7 +7038,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="41"/>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -7045,7 +7054,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="41"/>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -7061,7 +7070,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="41"/>
       <c r="B216" s="20"/>
       <c r="C216" s="13"/>
@@ -7077,7 +7086,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="41"/>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -7093,7 +7102,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="41"/>
       <c r="B218" s="20"/>
       <c r="C218" s="13"/>
@@ -7109,7 +7118,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="41"/>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
@@ -7125,7 +7134,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="41"/>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -7141,7 +7150,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="41"/>
       <c r="B221" s="20"/>
       <c r="C221" s="13"/>
@@ -7157,7 +7166,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="41"/>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
@@ -7173,7 +7182,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="41"/>
       <c r="B223" s="20"/>
       <c r="C223" s="13"/>
@@ -7189,7 +7198,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="41"/>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
@@ -7205,7 +7214,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="41"/>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
@@ -7221,7 +7230,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="41"/>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -7237,7 +7246,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="41"/>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -7253,7 +7262,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="41"/>
       <c r="B228" s="20"/>
       <c r="C228" s="13"/>
@@ -7269,7 +7278,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="41"/>
       <c r="B229" s="20"/>
       <c r="C229" s="13"/>
@@ -7285,7 +7294,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="41"/>
       <c r="B230" s="20"/>
       <c r="C230" s="13"/>
@@ -7301,7 +7310,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="41"/>
       <c r="B231" s="20"/>
       <c r="C231" s="13"/>
@@ -7317,7 +7326,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="41"/>
       <c r="B232" s="20"/>
       <c r="C232" s="13"/>
@@ -7333,7 +7342,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="41"/>
       <c r="B233" s="20"/>
       <c r="C233" s="13"/>
@@ -7349,7 +7358,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="41"/>
       <c r="B234" s="20"/>
       <c r="C234" s="13"/>
@@ -7365,7 +7374,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="41"/>
       <c r="B235" s="20"/>
       <c r="C235" s="13"/>
@@ -7381,7 +7390,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="41"/>
       <c r="B236" s="20"/>
       <c r="C236" s="13"/>
@@ -7397,7 +7406,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="41"/>
       <c r="B237" s="20"/>
       <c r="C237" s="13"/>
@@ -7413,7 +7422,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="41"/>
       <c r="B238" s="20"/>
       <c r="C238" s="13"/>
@@ -7429,7 +7438,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="41"/>
       <c r="B239" s="20"/>
       <c r="C239" s="13"/>
@@ -7445,7 +7454,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="41"/>
       <c r="B240" s="20"/>
       <c r="C240" s="13"/>
@@ -7461,7 +7470,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="41"/>
       <c r="B241" s="20"/>
       <c r="C241" s="13"/>
@@ -7477,7 +7486,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="41"/>
       <c r="B242" s="20"/>
       <c r="C242" s="13"/>
@@ -7493,7 +7502,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="41"/>
       <c r="B243" s="20"/>
       <c r="C243" s="13"/>
@@ -7509,7 +7518,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="41"/>
       <c r="B244" s="20"/>
       <c r="C244" s="13"/>
@@ -7525,7 +7534,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="41"/>
       <c r="B245" s="20"/>
       <c r="C245" s="13"/>
@@ -7541,7 +7550,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="41"/>
       <c r="B246" s="20"/>
       <c r="C246" s="13"/>
@@ -7557,7 +7566,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="41"/>
       <c r="B247" s="20"/>
       <c r="C247" s="13"/>
@@ -7573,7 +7582,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="41"/>
       <c r="B248" s="20"/>
       <c r="C248" s="13"/>
@@ -7589,7 +7598,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="41"/>
       <c r="B249" s="20"/>
       <c r="C249" s="13"/>
@@ -7605,7 +7614,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="41"/>
       <c r="B250" s="20"/>
       <c r="C250" s="13"/>
@@ -7621,7 +7630,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="41"/>
       <c r="B251" s="20"/>
       <c r="C251" s="13"/>
@@ -7637,7 +7646,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="41"/>
       <c r="B252" s="20"/>
       <c r="C252" s="13"/>
@@ -7653,7 +7662,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="41"/>
       <c r="B253" s="20"/>
       <c r="C253" s="13"/>
@@ -7669,7 +7678,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="41"/>
       <c r="B254" s="20"/>
       <c r="C254" s="13"/>
@@ -7685,7 +7694,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="41"/>
       <c r="B255" s="20"/>
       <c r="C255" s="13"/>
@@ -7701,7 +7710,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="41"/>
       <c r="B256" s="20"/>
       <c r="C256" s="13"/>
@@ -7717,7 +7726,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="41"/>
       <c r="B257" s="20"/>
       <c r="C257" s="13"/>
@@ -7733,7 +7742,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="41"/>
       <c r="B258" s="20"/>
       <c r="C258" s="13"/>
@@ -7749,7 +7758,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="41"/>
       <c r="B259" s="20"/>
       <c r="C259" s="13"/>
@@ -7765,7 +7774,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="41"/>
       <c r="B260" s="20"/>
       <c r="C260" s="13"/>
@@ -7781,7 +7790,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="41"/>
       <c r="B261" s="20"/>
       <c r="C261" s="13"/>
@@ -7797,7 +7806,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="41"/>
       <c r="B262" s="20"/>
       <c r="C262" s="13"/>
@@ -7813,7 +7822,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="41"/>
       <c r="B263" s="20"/>
       <c r="C263" s="13"/>
@@ -7829,7 +7838,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="41"/>
       <c r="B264" s="20"/>
       <c r="C264" s="13"/>
@@ -7845,7 +7854,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="41"/>
       <c r="B265" s="20"/>
       <c r="C265" s="13"/>
@@ -7861,7 +7870,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="41"/>
       <c r="B266" s="20"/>
       <c r="C266" s="13"/>
@@ -7877,7 +7886,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="41"/>
       <c r="B267" s="20"/>
       <c r="C267" s="13"/>
@@ -7893,7 +7902,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="41"/>
       <c r="B268" s="20"/>
       <c r="C268" s="13"/>
@@ -7909,7 +7918,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="42"/>
       <c r="B269" s="15"/>
       <c r="C269" s="43"/>
@@ -7940,10 +7949,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7966,34 +7975,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K200"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A73" activePane="bottomLeft"/>
+      <pane ySplit="4056" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K82" sqref="K82"/>
+      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -8014,7 +8023,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -8032,7 +8041,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -8052,7 +8061,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -8060,7 +8069,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -8073,7 +8082,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -8090,7 +8099,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -8125,7 +8134,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -8144,12 +8153,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -8171,7 +8180,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="41">
         <v>43101</v>
       </c>
@@ -8195,7 +8204,7 @@
         <v>43130</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="41">
         <v>43160</v>
       </c>
@@ -8219,7 +8228,7 @@
         <v>43160</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="42"/>
       <c r="B13" s="15" t="s">
         <v>48</v>
@@ -8241,7 +8250,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="41">
         <v>43221</v>
       </c>
@@ -8265,7 +8274,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="41"/>
       <c r="B15" s="20" t="s">
         <v>50</v>
@@ -8285,7 +8294,7 @@
         <v>43244</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -8307,7 +8316,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="41"/>
       <c r="B17" s="20" t="s">
         <v>46</v>
@@ -8329,7 +8338,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="41">
         <v>43282</v>
       </c>
@@ -8353,7 +8362,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="41"/>
       <c r="B19" s="20" t="s">
         <v>53</v>
@@ -8375,7 +8384,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="41"/>
       <c r="B20" s="20" t="s">
         <v>45</v>
@@ -8397,7 +8406,7 @@
         <v>43302</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41"/>
       <c r="B21" s="20" t="s">
         <v>48</v>
@@ -8419,7 +8428,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <v>43313</v>
       </c>
@@ -8443,7 +8452,7 @@
         <v>43340</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="41">
         <v>43344</v>
       </c>
@@ -8467,7 +8476,7 @@
         <v>43368</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <v>43374</v>
       </c>
@@ -8491,7 +8500,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="41">
         <v>43405</v>
       </c>
@@ -8515,7 +8524,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="41"/>
       <c r="B26" s="20" t="s">
         <v>61</v>
@@ -8537,7 +8546,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="41">
         <v>43435</v>
       </c>
@@ -8561,7 +8570,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="47" t="s">
         <v>64</v>
       </c>
@@ -8579,7 +8588,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="41">
         <v>43497</v>
       </c>
@@ -8601,7 +8610,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="41">
         <v>43525</v>
       </c>
@@ -8625,7 +8634,7 @@
         <v>43542</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="41">
         <v>43586</v>
       </c>
@@ -8649,7 +8658,7 @@
         <v>43606</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="41">
         <v>43617</v>
       </c>
@@ -8671,7 +8680,7 @@
         <v>43638</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="41">
         <v>43678</v>
       </c>
@@ -8695,7 +8704,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="41"/>
       <c r="B34" s="20" t="s">
         <v>50</v>
@@ -8715,7 +8724,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="41">
         <v>43709</v>
       </c>
@@ -8739,7 +8748,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="41">
         <v>43739</v>
       </c>
@@ -8763,7 +8772,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="41"/>
       <c r="B37" s="20" t="s">
         <v>45</v>
@@ -8785,7 +8794,7 @@
         <v>43760</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="41">
         <v>43770</v>
       </c>
@@ -8809,7 +8818,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="41"/>
       <c r="B39" s="20" t="s">
         <v>53</v>
@@ -8829,7 +8838,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="41"/>
       <c r="B40" s="20" t="s">
         <v>45</v>
@@ -8851,7 +8860,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="41"/>
       <c r="B41" s="20" t="s">
         <v>45</v>
@@ -8873,7 +8882,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="47" t="s">
         <v>66</v>
       </c>
@@ -8891,7 +8900,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="41">
         <v>43862</v>
       </c>
@@ -8913,7 +8922,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="41"/>
       <c r="B44" s="20" t="s">
         <v>51</v>
@@ -8933,7 +8942,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="41">
         <v>44013</v>
       </c>
@@ -8957,7 +8966,7 @@
         <v>44019</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="41">
         <v>44044</v>
       </c>
@@ -8981,7 +8990,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="41">
         <v>44075</v>
       </c>
@@ -9005,7 +9014,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="41"/>
       <c r="B48" s="20" t="s">
         <v>70</v>
@@ -9027,7 +9036,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="41"/>
       <c r="B49" s="20" t="s">
         <v>45</v>
@@ -9049,7 +9058,7 @@
         <v>44103</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="41">
         <v>44105</v>
       </c>
@@ -9071,7 +9080,7 @@
         <v>44131</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="47" t="s">
         <v>74</v>
       </c>
@@ -9089,7 +9098,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="41">
         <v>44197</v>
       </c>
@@ -9113,7 +9122,7 @@
         <v>44215</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="41">
         <v>44228</v>
       </c>
@@ -9137,7 +9146,7 @@
         <v>44244</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="41">
         <v>44378</v>
       </c>
@@ -9159,7 +9168,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="41">
         <v>44440</v>
       </c>
@@ -9181,7 +9190,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="41">
         <v>44470</v>
       </c>
@@ -9203,7 +9212,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="41">
         <v>44531</v>
       </c>
@@ -9227,7 +9236,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="47" t="s">
         <v>82</v>
       </c>
@@ -9245,7 +9254,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="41">
         <v>44562</v>
       </c>
@@ -9269,7 +9278,7 @@
         <v>44588</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="41">
         <v>44652</v>
       </c>
@@ -9293,7 +9302,7 @@
         <v>44659</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="41">
         <v>44682</v>
       </c>
@@ -9317,7 +9326,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="41"/>
       <c r="B62" s="20" t="s">
         <v>58</v>
@@ -9339,7 +9348,7 @@
         <v>44705</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="41">
         <v>44743</v>
       </c>
@@ -9363,7 +9372,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="41">
         <v>44774</v>
       </c>
@@ -9387,7 +9396,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="41"/>
       <c r="B65" s="20" t="s">
         <v>50</v>
@@ -9407,7 +9416,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="42">
         <v>44805</v>
       </c>
@@ -9431,7 +9440,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="41">
         <v>44835</v>
       </c>
@@ -9453,7 +9462,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="41"/>
       <c r="B68" s="20" t="s">
         <v>58</v>
@@ -9475,7 +9484,7 @@
         <v>44853</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="41">
         <v>44866</v>
       </c>
@@ -9499,7 +9508,7 @@
         <v>44889</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="41"/>
       <c r="B70" s="20" t="s">
         <v>45</v>
@@ -9521,7 +9530,7 @@
         <v>44876</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="41">
         <v>44896</v>
       </c>
@@ -9545,7 +9554,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="41"/>
       <c r="B72" s="20" t="s">
         <v>50</v>
@@ -9565,7 +9574,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="47" t="s">
         <v>93</v>
       </c>
@@ -9583,7 +9592,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="41">
         <v>44927</v>
       </c>
@@ -9607,7 +9616,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="41"/>
       <c r="B75" s="20" t="s">
         <v>46</v>
@@ -9629,7 +9638,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="41"/>
       <c r="B76" s="20" t="s">
         <v>94</v>
@@ -9651,7 +9660,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="41">
         <v>44986</v>
       </c>
@@ -9675,7 +9684,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="41"/>
       <c r="B78" s="20" t="s">
         <v>45</v>
@@ -9697,7 +9706,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="41"/>
       <c r="B79" s="20" t="s">
         <v>50</v>
@@ -9717,7 +9726,7 @@
         <v>45006</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="41"/>
       <c r="B80" s="20" t="s">
         <v>45</v>
@@ -9739,7 +9748,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="41">
         <v>45047</v>
       </c>
@@ -9763,7 +9772,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="41">
         <v>45078</v>
       </c>
@@ -9787,9 +9796,13 @@
         <v>99</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="41"/>
-      <c r="B83" s="20"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="41">
+        <v>45101</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C83" s="13"/>
       <c r="D83" s="40"/>
       <c r="E83" s="49"/>
@@ -9798,12 +9811,16 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H83" s="40"/>
+      <c r="H83" s="40">
+        <v>1</v>
+      </c>
       <c r="I83" s="49"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K83" s="48">
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="41"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -9819,7 +9836,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="41"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -9835,7 +9852,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="41"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -9851,7 +9868,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="41"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -9867,7 +9884,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="41"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -9883,7 +9900,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="41"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -9899,7 +9916,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="41"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -9915,7 +9932,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="41"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -9931,7 +9948,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="41"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -9947,7 +9964,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="41"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -9963,7 +9980,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="41"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -9979,7 +9996,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="41"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -9995,7 +10012,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="41"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -10011,7 +10028,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="41"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -10027,7 +10044,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="41"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -10043,7 +10060,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="41"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -10059,7 +10076,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="41"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -10075,7 +10092,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="41"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -10091,7 +10108,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="41"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -10107,7 +10124,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="41"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -10123,7 +10140,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="41"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -10139,7 +10156,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="41"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -10155,7 +10172,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="41"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -10171,7 +10188,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="41"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -10187,7 +10204,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="41"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -10203,7 +10220,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="41"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -10219,7 +10236,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="41"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -10235,7 +10252,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="41"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -10251,7 +10268,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="41"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -10267,7 +10284,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="41"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -10283,7 +10300,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="41"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -10299,7 +10316,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="41"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -10315,7 +10332,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="41"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -10331,7 +10348,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="41"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -10347,7 +10364,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="41"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -10363,7 +10380,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="41"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -10379,7 +10396,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="41"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -10395,7 +10412,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="41"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -10411,7 +10428,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="41"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -10427,7 +10444,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="41"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -10443,7 +10460,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="41"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -10459,7 +10476,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="41"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -10475,7 +10492,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="41"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -10491,7 +10508,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="41"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -10507,7 +10524,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="41"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -10523,7 +10540,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="41"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -10539,7 +10556,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="41"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -10555,7 +10572,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="41"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -10571,7 +10588,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="41"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -10587,7 +10604,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="41"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -10603,7 +10620,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="41"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -10619,7 +10636,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="41"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -10635,7 +10652,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="41"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -10651,7 +10668,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="41"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -10667,7 +10684,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="41"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -10683,7 +10700,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="41"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -10699,7 +10716,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="41"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -10715,7 +10732,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="41"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -10731,7 +10748,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="41"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -10747,7 +10764,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="41"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -10763,7 +10780,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="41"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -10779,7 +10796,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="41"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -10795,7 +10812,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="41"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -10811,7 +10828,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="41"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -10827,7 +10844,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="41"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -10843,7 +10860,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="41"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -10859,7 +10876,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="41"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -10875,7 +10892,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="41"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -10891,7 +10908,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="41"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -10907,7 +10924,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="41"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -10923,7 +10940,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="41"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -10939,7 +10956,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="41"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -10955,7 +10972,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="41"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -10971,7 +10988,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="41"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -10987,7 +11004,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="41"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -11003,7 +11020,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="41"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -11019,7 +11036,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="41"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -11035,7 +11052,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="41"/>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -11051,7 +11068,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="41"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -11067,7 +11084,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="41"/>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -11083,7 +11100,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="41"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -11099,7 +11116,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="41"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -11115,7 +11132,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="41"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -11131,7 +11148,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="41"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -11147,7 +11164,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="41"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -11163,7 +11180,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="41"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -11179,7 +11196,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="41"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -11195,7 +11212,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="41"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -11211,7 +11228,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="41"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -11227,7 +11244,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="41"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -11243,7 +11260,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="41"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -11259,7 +11276,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="41"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -11275,7 +11292,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="41"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -11291,7 +11308,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="41"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -11307,7 +11324,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="41"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -11323,7 +11340,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="41"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -11339,7 +11356,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="41"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -11355,7 +11372,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="41"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -11371,7 +11388,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="41"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -11387,7 +11404,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="41"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -11403,7 +11420,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="41"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -11419,7 +11436,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="41"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -11435,7 +11452,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="41"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -11451,7 +11468,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="41"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -11467,7 +11484,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="41"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -11483,7 +11500,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="41"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -11499,7 +11516,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="41"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -11515,7 +11532,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="41"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -11531,7 +11548,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="41"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -11547,7 +11564,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="41"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -11563,7 +11580,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="41"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -11579,7 +11596,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="41"/>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -11595,7 +11612,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="41"/>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -11611,7 +11628,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="41"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -11627,7 +11644,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="41"/>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -11643,7 +11660,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="41"/>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -11659,7 +11676,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="42"/>
       <c r="B200" s="15"/>
       <c r="C200" s="43"/>
@@ -11677,23 +11694,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11716,28 +11733,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="38" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="38" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -11750,7 +11767,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11779,7 +11796,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>66.042000000000002</v>
       </c>
@@ -11803,7 +11820,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0</v>
@@ -11818,10 +11835,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="39" t="s">
         <v>28</v>
       </c>
@@ -11841,7 +11858,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="38">
         <v>1</v>
       </c>
@@ -11867,7 +11884,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="38">
         <v>2</v>
       </c>
@@ -11893,7 +11910,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="38">
         <v>3</v>
       </c>
@@ -11919,7 +11936,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="38">
         <v>4</v>
       </c>
@@ -11945,7 +11962,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="38">
         <v>5</v>
       </c>
@@ -11971,7 +11988,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="38">
         <v>6</v>
       </c>
@@ -11997,7 +12014,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="38">
         <v>7</v>
       </c>
@@ -12023,7 +12040,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="38">
         <v>8</v>
       </c>
@@ -12049,7 +12066,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="38">
         <v>9</v>
       </c>
@@ -12069,7 +12086,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="38">
         <v>10</v>
       </c>
@@ -12089,7 +12106,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="38">
         <v>11</v>
       </c>
@@ -12109,7 +12126,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="38">
         <v>12</v>
       </c>
@@ -12130,7 +12147,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="38">
         <v>13</v>
       </c>
@@ -12151,7 +12168,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="38">
         <v>14</v>
       </c>
@@ -12172,7 +12189,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="38">
         <v>15</v>
       </c>
@@ -12193,7 +12210,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="38">
         <v>16</v>
       </c>
@@ -12214,7 +12231,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="38">
         <v>17</v>
       </c>
@@ -12235,7 +12252,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="38">
         <v>18</v>
       </c>
@@ -12256,7 +12273,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="38">
         <v>19</v>
       </c>
@@ -12277,7 +12294,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="38">
         <v>20</v>
       </c>
@@ -12298,7 +12315,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="38">
         <v>21</v>
       </c>
@@ -12319,7 +12336,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="38">
         <v>22</v>
       </c>
@@ -12340,7 +12357,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="38">
         <v>23</v>
       </c>
@@ -12361,7 +12378,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="38">
         <v>24</v>
       </c>
@@ -12382,7 +12399,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="38">
         <v>25</v>
       </c>
@@ -12403,7 +12420,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="38">
         <v>26</v>
       </c>
@@ -12424,7 +12441,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="38">
         <v>27</v>
       </c>
@@ -12445,7 +12462,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="38">
         <v>28</v>
       </c>
@@ -12466,7 +12483,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="38">
         <v>29</v>
       </c>
@@ -12487,7 +12504,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="38">
         <v>30</v>
       </c>
@@ -12508,7 +12525,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="38">
         <v>31</v>
       </c>
@@ -12529,7 +12546,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="38">
         <v>32</v>
       </c>
@@ -12538,7 +12555,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="38">
         <v>33</v>
       </c>
@@ -12547,7 +12564,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="38">
         <v>34</v>
       </c>
@@ -12556,7 +12573,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="38">
         <v>35</v>
       </c>
@@ -12565,7 +12582,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="38">
         <v>36</v>
       </c>
@@ -12574,7 +12591,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="38">
         <v>37</v>
       </c>
@@ -12583,7 +12600,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="38">
         <v>38</v>
       </c>
@@ -12592,7 +12609,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="38">
         <v>39</v>
       </c>
@@ -12601,7 +12618,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="38">
         <v>40</v>
       </c>
@@ -12610,7 +12627,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="38">
         <v>41</v>
       </c>
@@ -12619,7 +12636,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="38">
         <v>42</v>
       </c>
@@ -12628,7 +12645,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="38">
         <v>43</v>
       </c>
@@ -12637,7 +12654,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="38">
         <v>44</v>
       </c>
@@ -12646,7 +12663,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="38">
         <v>45</v>
       </c>
@@ -12655,7 +12672,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="38">
         <v>46</v>
       </c>
@@ -12664,7 +12681,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="38">
         <v>47</v>
       </c>
@@ -12673,7 +12690,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="38">
         <v>48</v>
       </c>
@@ -12682,7 +12699,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="38">
         <v>49</v>
       </c>
@@ -12691,7 +12708,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="38">
         <v>50</v>
       </c>
@@ -12700,7 +12717,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="38">
         <v>51</v>
       </c>
@@ -12709,7 +12726,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="38">
         <v>52</v>
       </c>
@@ -12718,7 +12735,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="38">
         <v>53</v>
       </c>
@@ -12727,7 +12744,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="38">
         <v>54</v>
       </c>
@@ -12736,7 +12753,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="38">
         <v>55</v>
       </c>
@@ -12745,7 +12762,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="38">
         <v>56</v>
       </c>
@@ -12754,7 +12771,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="38">
         <v>57</v>
       </c>
@@ -12763,7 +12780,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="38">
         <v>58</v>
       </c>
@@ -12772,7 +12789,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="38">
         <v>59</v>
       </c>
@@ -12781,7 +12798,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="38">
         <v>60</v>
       </c>
@@ -12790,7 +12807,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/DIMAANO, LEOVIGILDA ANGCAYA.xlsx
+++ b/DIMAANO, LEOVIGILDA ANGCAYA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D6960C-D267-4CEC-B8B0-5D0EAD8A9B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC658B3A-7C62-4E48-AA9E-3EA38C0B9C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="101">
   <si>
     <t>PERIOD</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>06/19,20/20223</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
@@ -3077,10 +3080,10 @@
   </sheetPr>
   <dimension ref="A2:K269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3588" topLeftCell="A78" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
+      <selection pane="bottomLeft" activeCell="C81" sqref="C81:C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3239,7 +3242,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>57.5</v>
+        <v>58.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3249,7 +3252,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>82.5</v>
+        <v>83.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4755,13 +4758,15 @@
         <v>45138</v>
       </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="40"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="40"/>
       <c r="I82" s="9"/>
@@ -7981,10 +7986,10 @@
   </sheetPr>
   <dimension ref="A2:K200"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4056" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
+      <selection pane="bottomLeft" activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8153,7 +8158,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -9821,8 +9826,12 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="41"/>
-      <c r="B84" s="20"/>
+      <c r="A84" s="41">
+        <v>45108</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C84" s="13"/>
       <c r="D84" s="40"/>
       <c r="E84" s="49"/>
@@ -9831,14 +9840,20 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H84" s="40"/>
+      <c r="H84" s="40">
+        <v>1</v>
+      </c>
       <c r="I84" s="49"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
+      <c r="K84" s="48">
+        <v>45117</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="41"/>
-      <c r="B85" s="20"/>
+      <c r="B85" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C85" s="13"/>
       <c r="D85" s="40"/>
       <c r="E85" s="49"/>
@@ -9847,14 +9862,22 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H85" s="40"/>
+      <c r="H85" s="40">
+        <v>1</v>
+      </c>
       <c r="I85" s="49"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
+      <c r="K85" s="48">
+        <v>45120</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="41"/>
-      <c r="B86" s="20"/>
+      <c r="A86" s="41">
+        <v>45136</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C86" s="13"/>
       <c r="D86" s="40"/>
       <c r="E86" s="49"/>
@@ -9863,10 +9886,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H86" s="40"/>
+      <c r="H86" s="40">
+        <v>1</v>
+      </c>
       <c r="I86" s="49"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="20"/>
+      <c r="K86" s="48">
+        <v>45135</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="41"/>
@@ -11694,17 +11721,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -11737,7 +11764,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11839,6 +11866,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="C6" s="39" t="s">
         <v>28</v>
       </c>
@@ -11859,6 +11889,10 @@
       <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
+        <v>142.5</v>
+      </c>
       <c r="C7" s="38">
         <v>1</v>
       </c>

--- a/DIMAANO, LEOVIGILDA ANGCAYA.xlsx
+++ b/DIMAANO, LEOVIGILDA ANGCAYA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC658B3A-7C62-4E48-AA9E-3EA38C0B9C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="5" r:id="rId1"/>
@@ -30,7 +29,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="101">
   <si>
     <t>PERIOD</t>
   </si>
@@ -348,7 +347,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1276,7 +1275,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68AD954A-7DD0-44FF-AB11-86F01056025D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{68AD954A-7DD0-44FF-AB11-86F01056025D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1319,7 +1318,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9734F851-CE56-4EDF-9EF1-953EE5DBE251}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9734F851-CE56-4EDF-9EF1-953EE5DBE251}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1383,7 +1382,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F20BBBF6-75FF-4CBE-ACA6-861D3D1E7806}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F20BBBF6-75FF-4CBE-ACA6-861D3D1E7806}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1443,7 +1442,7 @@
         <xdr:cNvPr id="5" name="Oval 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D946256-EBA3-4C5E-AE90-878D5CCD71A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D946256-EBA3-4C5E-AE90-878D5CCD71A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1509,7 +1508,7 @@
         <xdr:cNvPr id="6" name="Arrow: Left-Right 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E3A2BDE-476B-4DD9-9E27-446EC9F2235E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E3A2BDE-476B-4DD9-9E27-446EC9F2235E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1572,7 +1571,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DBE5C18-7CCB-4DF4-B046-F8228CD70B27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4DBE5C18-7CCB-4DF4-B046-F8228CD70B27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1670,7 +1669,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82624F04-EE7B-4FCB-9116-9D70AD30C87C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82624F04-EE7B-4FCB-9116-9D70AD30C87C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1729,7 +1728,7 @@
         <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C14E1DB5-CA39-407E-9D7F-F15CAEC7010D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C14E1DB5-CA39-407E-9D7F-F15CAEC7010D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1794,7 +1793,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F62F5BC-A343-4F32-BDC2-D47ECC0CCE92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F62F5BC-A343-4F32-BDC2-D47ECC0CCE92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1837,7 +1836,7 @@
         <xdr:cNvPr id="11" name="TextBox 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DB27CA2-2552-44E6-A70A-046BB421FD07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2DB27CA2-2552-44E6-A70A-046BB421FD07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1912,7 +1911,7 @@
         <xdr:cNvPr id="12" name="TextBox 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8909640B-E004-43FC-ABD8-AE5736852DDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8909640B-E004-43FC-ABD8-AE5736852DDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2098,7 +2097,7 @@
         <xdr:cNvPr id="13" name="Oval 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E20CC74B-D16E-44AB-8CBC-F2E8E6BAF9B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E20CC74B-D16E-44AB-8CBC-F2E8E6BAF9B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2164,7 +2163,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0366E899-0AE8-4DB2-AF27-0D5D4E430ECE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0366E899-0AE8-4DB2-AF27-0D5D4E430ECE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2222,7 +2221,7 @@
         <xdr:cNvPr id="15" name="Oval 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DB812C1-23F7-4585-97FF-0895CE7B771F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3DB812C1-23F7-4585-97FF-0895CE7B771F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2288,7 +2287,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12B1D48-77ED-4828-9B15-4F15CF7CC202}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F12B1D48-77ED-4828-9B15-4F15CF7CC202}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,7 +2343,7 @@
         <xdr:cNvPr id="17" name="TextBox 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{889682BF-D44A-4475-9B2D-5ED8A675DCF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{889682BF-D44A-4475-9B2D-5ED8A675DCF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2419,7 +2418,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFCE4D25-2139-496B-845E-126AABE113D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DFCE4D25-2139-496B-845E-126AABE113D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2462,7 +2461,7 @@
         <xdr:cNvPr id="19" name="Oval 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F84D279C-7E4C-4B53-85A5-A21A8FE39F8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F84D279C-7E4C-4B53-85A5-A21A8FE39F8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2528,7 +2527,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2129D637-A52B-4CD3-B274-97910BC7E60D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2129D637-A52B-4CD3-B274-97910BC7E60D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2584,7 +2583,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D6AFE9D-0D0D-4B8C-AC0C-2BD2F4978AA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D6AFE9D-0D0D-4B8C-AC0C-2BD2F4978AA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2663,7 +2662,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2680,7 +2679,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="INSTRUCTION"/>
@@ -2701,25 +2700,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K269" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K269" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2731,25 +2730,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K200" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K200" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3056,7 +3055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3066,7 +3065,7 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3074,34 +3073,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K269"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3588" topLeftCell="A78" activePane="bottomLeft"/>
+      <pane ySplit="3585" topLeftCell="A78" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="C81" sqref="C81:C82"/>
+      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3122,7 +3121,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3140,7 +3139,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3160,7 +3159,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3168,7 +3167,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3181,7 +3180,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3198,7 +3197,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3233,7 +3232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3257,7 +3256,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -3277,7 +3276,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>43101</v>
       </c>
@@ -3297,7 +3296,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="48"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>43132</v>
       </c>
@@ -3323,7 +3322,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
         <v>43160</v>
       </c>
@@ -3343,7 +3342,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="41">
         <v>43191</v>
       </c>
@@ -3363,7 +3362,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>43221</v>
       </c>
@@ -3383,7 +3382,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="48"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -3403,7 +3402,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <v>43282</v>
       </c>
@@ -3423,7 +3422,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <v>43313</v>
       </c>
@@ -3443,7 +3442,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <v>43344</v>
       </c>
@@ -3463,7 +3462,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="48"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>43374</v>
       </c>
@@ -3483,7 +3482,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="48"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <v>43405</v>
       </c>
@@ -3503,7 +3502,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>43435</v>
       </c>
@@ -3523,7 +3522,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>64</v>
       </c>
@@ -3541,7 +3540,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <v>43466</v>
       </c>
@@ -3561,7 +3560,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <v>43497</v>
       </c>
@@ -3581,7 +3580,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <v>43525</v>
       </c>
@@ -3601,7 +3600,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="41">
         <v>43556</v>
       </c>
@@ -3621,7 +3620,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="48"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="41">
         <v>43586</v>
       </c>
@@ -3641,7 +3640,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="41">
         <v>43617</v>
       </c>
@@ -3661,7 +3660,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>43647</v>
       </c>
@@ -3681,7 +3680,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="48"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="41">
         <v>43678</v>
       </c>
@@ -3707,7 +3706,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <v>43709</v>
       </c>
@@ -3733,7 +3732,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
         <v>43739</v>
       </c>
@@ -3759,7 +3758,7 @@
         <v>43762</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="41">
         <v>43770</v>
       </c>
@@ -3779,7 +3778,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <v>43800</v>
       </c>
@@ -3805,7 +3804,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
         <v>66</v>
       </c>
@@ -3823,7 +3822,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="41">
         <v>43831</v>
       </c>
@@ -3843,7 +3842,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="41">
         <v>43862</v>
       </c>
@@ -3863,7 +3862,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="41">
         <v>43891</v>
       </c>
@@ -3883,7 +3882,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="41">
         <v>43922</v>
       </c>
@@ -3903,7 +3902,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="41">
         <v>43952</v>
       </c>
@@ -3923,7 +3922,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="41">
         <v>43983</v>
       </c>
@@ -3943,7 +3942,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="41">
         <v>44013</v>
       </c>
@@ -3963,7 +3962,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="41">
         <v>44044</v>
       </c>
@@ -3989,7 +3988,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="41">
         <v>44075</v>
       </c>
@@ -4009,7 +4008,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="48"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="41">
         <v>44105</v>
       </c>
@@ -4035,7 +4034,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="41">
         <v>44136</v>
       </c>
@@ -4055,7 +4054,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="41">
         <v>44166</v>
       </c>
@@ -4075,7 +4074,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="48"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
         <v>74</v>
       </c>
@@ -4093,7 +4092,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="48"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="41">
         <v>44197</v>
       </c>
@@ -4113,7 +4112,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="41">
         <v>44228</v>
       </c>
@@ -4137,7 +4136,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="48"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="41">
         <v>44256</v>
       </c>
@@ -4157,7 +4156,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="41">
         <v>44287</v>
       </c>
@@ -4177,7 +4176,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="41">
         <v>44317</v>
       </c>
@@ -4197,7 +4196,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="48"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="41">
         <v>44348</v>
       </c>
@@ -4217,7 +4216,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="48"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="41">
         <v>44378</v>
       </c>
@@ -4237,7 +4236,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="48"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="41">
         <v>44409</v>
       </c>
@@ -4257,7 +4256,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="41">
         <v>44440</v>
       </c>
@@ -4277,7 +4276,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="41">
         <v>44470</v>
       </c>
@@ -4303,7 +4302,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="41">
         <v>44501</v>
       </c>
@@ -4323,7 +4322,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="41">
         <v>44531</v>
       </c>
@@ -4343,7 +4342,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="48"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="47" t="s">
         <v>82</v>
       </c>
@@ -4361,7 +4360,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="48"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="41">
         <v>44562</v>
       </c>
@@ -4381,7 +4380,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="48"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="41">
         <v>44593</v>
       </c>
@@ -4401,7 +4400,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="48"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="41">
         <v>44621</v>
       </c>
@@ -4421,7 +4420,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="41">
         <v>44652</v>
       </c>
@@ -4447,7 +4446,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="41">
         <v>44682</v>
       </c>
@@ -4467,7 +4466,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="41">
         <v>44713</v>
       </c>
@@ -4487,7 +4486,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="48"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="41">
         <v>44743</v>
       </c>
@@ -4507,7 +4506,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="48"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="41">
         <v>44774</v>
       </c>
@@ -4527,7 +4526,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="41">
         <v>44805</v>
       </c>
@@ -4547,7 +4546,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="48"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="41">
         <v>44835</v>
       </c>
@@ -4567,7 +4566,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="41">
         <v>44866</v>
       </c>
@@ -4587,7 +4586,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="41">
         <v>44896</v>
       </c>
@@ -4613,7 +4612,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="47" t="s">
         <v>93</v>
       </c>
@@ -4631,7 +4630,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="41">
         <v>44957</v>
       </c>
@@ -4651,7 +4650,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="41">
         <v>44985</v>
       </c>
@@ -4671,7 +4670,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="41">
         <v>45016</v>
       </c>
@@ -4691,7 +4690,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="48"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="41">
         <v>45046</v>
       </c>
@@ -4711,7 +4710,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="41">
         <v>45077</v>
       </c>
@@ -4731,7 +4730,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="41">
         <v>45107</v>
       </c>
@@ -4753,7 +4752,7 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="41">
         <v>45138</v>
       </c>
@@ -4773,7 +4772,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="41">
         <v>45169</v>
       </c>
@@ -4791,7 +4790,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="48"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="41">
         <v>45199</v>
       </c>
@@ -4809,7 +4808,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="41">
         <v>45230</v>
       </c>
@@ -4827,7 +4826,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="41">
         <v>45260</v>
       </c>
@@ -4845,7 +4844,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="48"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="41">
         <v>45291</v>
       </c>
@@ -4863,7 +4862,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="41">
         <v>45322</v>
       </c>
@@ -4881,7 +4880,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="41">
         <v>45351</v>
       </c>
@@ -4899,7 +4898,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="48"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="41">
         <v>45382</v>
       </c>
@@ -4917,7 +4916,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="48"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="41">
         <v>45412</v>
       </c>
@@ -4935,7 +4934,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="41">
         <v>45443</v>
       </c>
@@ -4953,7 +4952,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="41">
         <v>45473</v>
       </c>
@@ -4971,7 +4970,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="48"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="41">
         <v>45504</v>
       </c>
@@ -4989,7 +4988,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="41">
         <v>45535</v>
       </c>
@@ -5007,7 +5006,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="41">
         <v>45565</v>
       </c>
@@ -5025,7 +5024,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="41">
         <v>45596</v>
       </c>
@@ -5043,7 +5042,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="41">
         <v>45626</v>
       </c>
@@ -5061,7 +5060,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="48"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="41">
         <v>45657</v>
       </c>
@@ -5079,7 +5078,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="41">
         <v>45688</v>
       </c>
@@ -5097,7 +5096,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="48"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="41">
         <v>45716</v>
       </c>
@@ -5115,7 +5114,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="41">
         <v>45747</v>
       </c>
@@ -5133,7 +5132,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="41">
         <v>45777</v>
       </c>
@@ -5151,7 +5150,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="41">
         <v>45808</v>
       </c>
@@ -5169,7 +5168,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="41">
         <v>45838</v>
       </c>
@@ -5187,7 +5186,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="41">
         <v>45869</v>
       </c>
@@ -5205,7 +5204,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="41">
         <v>45900</v>
       </c>
@@ -5223,7 +5222,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="41">
         <v>45930</v>
       </c>
@@ -5241,7 +5240,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="41">
         <v>45961</v>
       </c>
@@ -5259,7 +5258,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="41">
         <v>45991</v>
       </c>
@@ -5277,7 +5276,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="41">
         <v>46022</v>
       </c>
@@ -5295,7 +5294,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="41">
         <v>46053</v>
       </c>
@@ -5313,7 +5312,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="41">
         <v>46081</v>
       </c>
@@ -5331,7 +5330,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="41">
         <v>46112</v>
       </c>
@@ -5349,7 +5348,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="41">
         <v>46142</v>
       </c>
@@ -5367,7 +5366,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="41">
         <v>46173</v>
       </c>
@@ -5385,7 +5384,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="41">
         <v>46203</v>
       </c>
@@ -5403,7 +5402,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="41">
         <v>46234</v>
       </c>
@@ -5421,7 +5420,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="48"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="41">
         <v>46265</v>
       </c>
@@ -5439,7 +5438,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="41">
         <v>46295</v>
       </c>
@@ -5457,7 +5456,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="41">
         <v>46326</v>
       </c>
@@ -5475,7 +5474,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="41">
         <v>46356</v>
       </c>
@@ -5493,7 +5492,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="41">
         <v>46387</v>
       </c>
@@ -5511,7 +5510,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="48"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="41">
         <v>46418</v>
       </c>
@@ -5529,7 +5528,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="41">
         <v>46446</v>
       </c>
@@ -5547,7 +5546,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="41">
         <v>46477</v>
       </c>
@@ -5565,7 +5564,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="48"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="41">
         <v>46507</v>
       </c>
@@ -5583,7 +5582,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="41">
         <v>46538</v>
       </c>
@@ -5601,7 +5600,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="41">
         <v>46568</v>
       </c>
@@ -5619,7 +5618,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41">
         <v>46599</v>
       </c>
@@ -5637,7 +5636,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="41">
         <v>46630</v>
       </c>
@@ -5655,7 +5654,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="41">
         <v>46660</v>
       </c>
@@ -5673,7 +5672,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="48"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="41">
         <v>46691</v>
       </c>
@@ -5691,7 +5690,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="41">
         <v>46721</v>
       </c>
@@ -5709,7 +5708,7 @@
       <c r="J134" s="12"/>
       <c r="K134" s="15"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="41">
         <v>46752</v>
       </c>
@@ -5727,7 +5726,7 @@
       <c r="J135" s="12"/>
       <c r="K135" s="15"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="41">
         <v>46783</v>
       </c>
@@ -5745,7 +5744,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="41">
         <v>46812</v>
       </c>
@@ -5763,7 +5762,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="48"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="41">
         <v>46843</v>
       </c>
@@ -5781,7 +5780,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="48"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="41">
         <v>46873</v>
       </c>
@@ -5799,7 +5798,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="41">
         <v>46904</v>
       </c>
@@ -5817,7 +5816,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="41">
         <v>46934</v>
       </c>
@@ -5835,7 +5834,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="41">
         <v>46965</v>
       </c>
@@ -5853,7 +5852,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="41">
         <v>46996</v>
       </c>
@@ -5871,7 +5870,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="41">
         <v>47026</v>
       </c>
@@ -5889,7 +5888,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="41">
         <v>47057</v>
       </c>
@@ -5907,7 +5906,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="41">
         <v>47087</v>
       </c>
@@ -5925,7 +5924,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="41">
         <v>47118</v>
       </c>
@@ -5943,7 +5942,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="41">
         <v>47149</v>
       </c>
@@ -5961,7 +5960,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="41">
         <v>47177</v>
       </c>
@@ -5979,7 +5978,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="41">
         <v>47208</v>
       </c>
@@ -5997,7 +5996,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="41">
         <v>47238</v>
       </c>
@@ -6015,7 +6014,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="41">
         <v>47269</v>
       </c>
@@ -6033,7 +6032,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="41">
         <v>47299</v>
       </c>
@@ -6051,7 +6050,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="41">
         <v>47330</v>
       </c>
@@ -6069,7 +6068,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="41">
         <v>47361</v>
       </c>
@@ -6087,7 +6086,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="41">
         <v>47391</v>
       </c>
@@ -6105,7 +6104,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="41">
         <v>47422</v>
       </c>
@@ -6123,7 +6122,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="41">
         <v>47452</v>
       </c>
@@ -6141,7 +6140,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="41">
         <v>47483</v>
       </c>
@@ -6159,7 +6158,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="41">
         <v>47514</v>
       </c>
@@ -6177,7 +6176,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="41">
         <v>47542</v>
       </c>
@@ -6195,7 +6194,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="41">
         <v>47573</v>
       </c>
@@ -6213,7 +6212,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="41">
         <v>47603</v>
       </c>
@@ -6231,7 +6230,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="41">
         <v>47634</v>
       </c>
@@ -6249,7 +6248,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="41">
         <v>47664</v>
       </c>
@@ -6267,7 +6266,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="41">
         <v>47695</v>
       </c>
@@ -6285,7 +6284,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="41">
         <v>47726</v>
       </c>
@@ -6303,7 +6302,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="41">
         <v>47756</v>
       </c>
@@ -6321,7 +6320,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="41">
         <v>47787</v>
       </c>
@@ -6339,7 +6338,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="41"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -6355,7 +6354,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="41"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -6371,7 +6370,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="41"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -6387,7 +6386,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="41"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -6403,7 +6402,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="41"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -6419,7 +6418,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="41"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -6435,7 +6434,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="41"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -6451,7 +6450,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="41"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -6467,7 +6466,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="41"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -6483,7 +6482,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="41"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -6499,7 +6498,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="41"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -6515,7 +6514,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="41"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -6531,7 +6530,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="41"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -6547,7 +6546,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="41"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -6563,7 +6562,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="41"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -6579,7 +6578,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="41"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -6595,7 +6594,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="41"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -6611,7 +6610,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="41"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -6627,7 +6626,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="41"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -6643,7 +6642,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="41"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -6659,7 +6658,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="41"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -6675,7 +6674,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="41"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -6691,7 +6690,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="41"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -6707,7 +6706,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="41"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -6723,7 +6722,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="41"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -6739,7 +6738,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="41"/>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -6755,7 +6754,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="41"/>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -6771,7 +6770,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="41"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -6787,7 +6786,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="41"/>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -6803,7 +6802,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="41"/>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -6819,7 +6818,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="41"/>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -6835,7 +6834,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="41"/>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -6851,7 +6850,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="41"/>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -6867,7 +6866,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="41"/>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -6883,7 +6882,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="41"/>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -6899,7 +6898,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="41"/>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
@@ -6915,7 +6914,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="41"/>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -6931,7 +6930,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="41"/>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -6947,7 +6946,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="41"/>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -6963,7 +6962,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="41"/>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -6979,7 +6978,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="41"/>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -6995,7 +6994,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="41"/>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -7011,7 +7010,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="41"/>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -7027,7 +7026,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="41"/>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -7043,7 +7042,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="41"/>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -7059,7 +7058,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="41"/>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -7075,7 +7074,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="41"/>
       <c r="B216" s="20"/>
       <c r="C216" s="13"/>
@@ -7091,7 +7090,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="41"/>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -7107,7 +7106,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="41"/>
       <c r="B218" s="20"/>
       <c r="C218" s="13"/>
@@ -7123,7 +7122,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="41"/>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
@@ -7139,7 +7138,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="41"/>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -7155,7 +7154,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="41"/>
       <c r="B221" s="20"/>
       <c r="C221" s="13"/>
@@ -7171,7 +7170,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="41"/>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
@@ -7187,7 +7186,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="41"/>
       <c r="B223" s="20"/>
       <c r="C223" s="13"/>
@@ -7203,7 +7202,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="41"/>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
@@ -7219,7 +7218,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="41"/>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
@@ -7235,7 +7234,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="41"/>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -7251,7 +7250,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="41"/>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -7267,7 +7266,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="41"/>
       <c r="B228" s="20"/>
       <c r="C228" s="13"/>
@@ -7283,7 +7282,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="41"/>
       <c r="B229" s="20"/>
       <c r="C229" s="13"/>
@@ -7299,7 +7298,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="41"/>
       <c r="B230" s="20"/>
       <c r="C230" s="13"/>
@@ -7315,7 +7314,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="41"/>
       <c r="B231" s="20"/>
       <c r="C231" s="13"/>
@@ -7331,7 +7330,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="41"/>
       <c r="B232" s="20"/>
       <c r="C232" s="13"/>
@@ -7347,7 +7346,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="41"/>
       <c r="B233" s="20"/>
       <c r="C233" s="13"/>
@@ -7363,7 +7362,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="41"/>
       <c r="B234" s="20"/>
       <c r="C234" s="13"/>
@@ -7379,7 +7378,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="41"/>
       <c r="B235" s="20"/>
       <c r="C235" s="13"/>
@@ -7395,7 +7394,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="41"/>
       <c r="B236" s="20"/>
       <c r="C236" s="13"/>
@@ -7411,7 +7410,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="41"/>
       <c r="B237" s="20"/>
       <c r="C237" s="13"/>
@@ -7427,7 +7426,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="41"/>
       <c r="B238" s="20"/>
       <c r="C238" s="13"/>
@@ -7443,7 +7442,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="41"/>
       <c r="B239" s="20"/>
       <c r="C239" s="13"/>
@@ -7459,7 +7458,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="41"/>
       <c r="B240" s="20"/>
       <c r="C240" s="13"/>
@@ -7475,7 +7474,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="41"/>
       <c r="B241" s="20"/>
       <c r="C241" s="13"/>
@@ -7491,7 +7490,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="41"/>
       <c r="B242" s="20"/>
       <c r="C242" s="13"/>
@@ -7507,7 +7506,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="41"/>
       <c r="B243" s="20"/>
       <c r="C243" s="13"/>
@@ -7523,7 +7522,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="41"/>
       <c r="B244" s="20"/>
       <c r="C244" s="13"/>
@@ -7539,7 +7538,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="41"/>
       <c r="B245" s="20"/>
       <c r="C245" s="13"/>
@@ -7555,7 +7554,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="41"/>
       <c r="B246" s="20"/>
       <c r="C246" s="13"/>
@@ -7571,7 +7570,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="41"/>
       <c r="B247" s="20"/>
       <c r="C247" s="13"/>
@@ -7587,7 +7586,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="41"/>
       <c r="B248" s="20"/>
       <c r="C248" s="13"/>
@@ -7603,7 +7602,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="41"/>
       <c r="B249" s="20"/>
       <c r="C249" s="13"/>
@@ -7619,7 +7618,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="41"/>
       <c r="B250" s="20"/>
       <c r="C250" s="13"/>
@@ -7635,7 +7634,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="41"/>
       <c r="B251" s="20"/>
       <c r="C251" s="13"/>
@@ -7651,7 +7650,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="41"/>
       <c r="B252" s="20"/>
       <c r="C252" s="13"/>
@@ -7667,7 +7666,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="41"/>
       <c r="B253" s="20"/>
       <c r="C253" s="13"/>
@@ -7683,7 +7682,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="41"/>
       <c r="B254" s="20"/>
       <c r="C254" s="13"/>
@@ -7699,7 +7698,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="41"/>
       <c r="B255" s="20"/>
       <c r="C255" s="13"/>
@@ -7715,7 +7714,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="41"/>
       <c r="B256" s="20"/>
       <c r="C256" s="13"/>
@@ -7731,7 +7730,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="41"/>
       <c r="B257" s="20"/>
       <c r="C257" s="13"/>
@@ -7747,7 +7746,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="41"/>
       <c r="B258" s="20"/>
       <c r="C258" s="13"/>
@@ -7763,7 +7762,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="41"/>
       <c r="B259" s="20"/>
       <c r="C259" s="13"/>
@@ -7779,7 +7778,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="41"/>
       <c r="B260" s="20"/>
       <c r="C260" s="13"/>
@@ -7795,7 +7794,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="41"/>
       <c r="B261" s="20"/>
       <c r="C261" s="13"/>
@@ -7811,7 +7810,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="41"/>
       <c r="B262" s="20"/>
       <c r="C262" s="13"/>
@@ -7827,7 +7826,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="41"/>
       <c r="B263" s="20"/>
       <c r="C263" s="13"/>
@@ -7843,7 +7842,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="41"/>
       <c r="B264" s="20"/>
       <c r="C264" s="13"/>
@@ -7859,7 +7858,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="41"/>
       <c r="B265" s="20"/>
       <c r="C265" s="13"/>
@@ -7875,7 +7874,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="41"/>
       <c r="B266" s="20"/>
       <c r="C266" s="13"/>
@@ -7891,7 +7890,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="41"/>
       <c r="B267" s="20"/>
       <c r="C267" s="13"/>
@@ -7907,7 +7906,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="41"/>
       <c r="B268" s="20"/>
       <c r="C268" s="13"/>
@@ -7923,7 +7922,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="42"/>
       <c r="B269" s="15"/>
       <c r="C269" s="43"/>
@@ -7954,10 +7953,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7980,34 +7979,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A76" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K87" sqref="K87"/>
+      <selection pane="bottomLeft" activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -8028,7 +8027,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -8046,7 +8045,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -8066,7 +8065,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -8074,7 +8073,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -8087,7 +8086,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -8104,7 +8103,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -8139,7 +8138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -8148,7 +8147,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>20.042000000000002</v>
+        <v>19.042000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -8163,7 +8162,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -8185,7 +8184,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>43101</v>
       </c>
@@ -8209,7 +8208,7 @@
         <v>43130</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>43160</v>
       </c>
@@ -8233,7 +8232,7 @@
         <v>43160</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="42"/>
       <c r="B13" s="15" t="s">
         <v>48</v>
@@ -8255,7 +8254,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="41">
         <v>43221</v>
       </c>
@@ -8279,7 +8278,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="20" t="s">
         <v>50</v>
@@ -8299,7 +8298,7 @@
         <v>43244</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -8321,7 +8320,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="41"/>
       <c r="B17" s="20" t="s">
         <v>46</v>
@@ -8343,7 +8342,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <v>43282</v>
       </c>
@@ -8367,7 +8366,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="41"/>
       <c r="B19" s="20" t="s">
         <v>53</v>
@@ -8389,7 +8388,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41"/>
       <c r="B20" s="20" t="s">
         <v>45</v>
@@ -8411,7 +8410,7 @@
         <v>43302</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>
       <c r="B21" s="20" t="s">
         <v>48</v>
@@ -8433,7 +8432,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>43313</v>
       </c>
@@ -8457,7 +8456,7 @@
         <v>43340</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="41">
         <v>43344</v>
       </c>
@@ -8481,7 +8480,7 @@
         <v>43368</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <v>43374</v>
       </c>
@@ -8505,7 +8504,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <v>43405</v>
       </c>
@@ -8529,7 +8528,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="41"/>
       <c r="B26" s="20" t="s">
         <v>61</v>
@@ -8551,7 +8550,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="41">
         <v>43435</v>
       </c>
@@ -8575,7 +8574,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="s">
         <v>64</v>
       </c>
@@ -8593,7 +8592,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="41">
         <v>43497</v>
       </c>
@@ -8615,7 +8614,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>43525</v>
       </c>
@@ -8639,7 +8638,7 @@
         <v>43542</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="41">
         <v>43586</v>
       </c>
@@ -8663,7 +8662,7 @@
         <v>43606</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <v>43617</v>
       </c>
@@ -8685,7 +8684,7 @@
         <v>43638</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
         <v>43678</v>
       </c>
@@ -8709,7 +8708,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="20" t="s">
         <v>50</v>
@@ -8729,7 +8728,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <v>43709</v>
       </c>
@@ -8753,7 +8752,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="41">
         <v>43739</v>
       </c>
@@ -8777,7 +8776,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
       <c r="B37" s="20" t="s">
         <v>45</v>
@@ -8799,7 +8798,7 @@
         <v>43760</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="41">
         <v>43770</v>
       </c>
@@ -8823,7 +8822,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="41"/>
       <c r="B39" s="20" t="s">
         <v>53</v>
@@ -8843,7 +8842,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
       <c r="B40" s="20" t="s">
         <v>45</v>
@@ -8865,7 +8864,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
       <c r="B41" s="20" t="s">
         <v>45</v>
@@ -8887,7 +8886,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
         <v>66</v>
       </c>
@@ -8905,7 +8904,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="41">
         <v>43862</v>
       </c>
@@ -8927,7 +8926,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
       <c r="B44" s="20" t="s">
         <v>51</v>
@@ -8947,7 +8946,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="41">
         <v>44013</v>
       </c>
@@ -8971,7 +8970,7 @@
         <v>44019</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="41">
         <v>44044</v>
       </c>
@@ -8995,7 +8994,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="41">
         <v>44075</v>
       </c>
@@ -9019,7 +9018,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
       <c r="B48" s="20" t="s">
         <v>70</v>
@@ -9041,7 +9040,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
       <c r="B49" s="20" t="s">
         <v>45</v>
@@ -9063,7 +9062,7 @@
         <v>44103</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="41">
         <v>44105</v>
       </c>
@@ -9085,7 +9084,7 @@
         <v>44131</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="47" t="s">
         <v>74</v>
       </c>
@@ -9103,7 +9102,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="41">
         <v>44197</v>
       </c>
@@ -9127,7 +9126,7 @@
         <v>44215</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="41">
         <v>44228</v>
       </c>
@@ -9151,7 +9150,7 @@
         <v>44244</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="41">
         <v>44378</v>
       </c>
@@ -9173,7 +9172,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="41">
         <v>44440</v>
       </c>
@@ -9195,7 +9194,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="41">
         <v>44470</v>
       </c>
@@ -9217,7 +9216,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="41">
         <v>44531</v>
       </c>
@@ -9241,7 +9240,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="47" t="s">
         <v>82</v>
       </c>
@@ -9259,7 +9258,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="41">
         <v>44562</v>
       </c>
@@ -9283,7 +9282,7 @@
         <v>44588</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="41">
         <v>44652</v>
       </c>
@@ -9307,7 +9306,7 @@
         <v>44659</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="41">
         <v>44682</v>
       </c>
@@ -9331,7 +9330,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
       <c r="B62" s="20" t="s">
         <v>58</v>
@@ -9353,7 +9352,7 @@
         <v>44705</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="41">
         <v>44743</v>
       </c>
@@ -9377,7 +9376,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="41">
         <v>44774</v>
       </c>
@@ -9401,7 +9400,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
       <c r="B65" s="20" t="s">
         <v>50</v>
@@ -9421,7 +9420,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="42">
         <v>44805</v>
       </c>
@@ -9445,7 +9444,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="41">
         <v>44835</v>
       </c>
@@ -9467,7 +9466,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
       <c r="B68" s="20" t="s">
         <v>58</v>
@@ -9489,7 +9488,7 @@
         <v>44853</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="41">
         <v>44866</v>
       </c>
@@ -9513,7 +9512,7 @@
         <v>44889</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
       <c r="B70" s="20" t="s">
         <v>45</v>
@@ -9535,7 +9534,7 @@
         <v>44876</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="41">
         <v>44896</v>
       </c>
@@ -9559,7 +9558,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="41"/>
       <c r="B72" s="20" t="s">
         <v>50</v>
@@ -9579,7 +9578,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="47" t="s">
         <v>93</v>
       </c>
@@ -9597,7 +9596,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="41">
         <v>44927</v>
       </c>
@@ -9621,7 +9620,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="41"/>
       <c r="B75" s="20" t="s">
         <v>46</v>
@@ -9643,7 +9642,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="41"/>
       <c r="B76" s="20" t="s">
         <v>94</v>
@@ -9665,7 +9664,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="41">
         <v>44986</v>
       </c>
@@ -9689,7 +9688,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="41"/>
       <c r="B78" s="20" t="s">
         <v>45</v>
@@ -9711,7 +9710,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="41"/>
       <c r="B79" s="20" t="s">
         <v>50</v>
@@ -9731,7 +9730,7 @@
         <v>45006</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="41"/>
       <c r="B80" s="20" t="s">
         <v>45</v>
@@ -9753,7 +9752,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="41">
         <v>45047</v>
       </c>
@@ -9777,7 +9776,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="41">
         <v>45078</v>
       </c>
@@ -9801,7 +9800,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="41">
         <v>45101</v>
       </c>
@@ -9825,7 +9824,7 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="41">
         <v>45108</v>
       </c>
@@ -9849,7 +9848,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="41"/>
       <c r="B85" s="20" t="s">
         <v>45</v>
@@ -9871,7 +9870,7 @@
         <v>45120</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="41">
         <v>45136</v>
       </c>
@@ -9895,11 +9894,17 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="41"/>
-      <c r="B87" s="20"/>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="41">
+        <v>45139</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C87" s="13"/>
-      <c r="D87" s="40"/>
+      <c r="D87" s="40">
+        <v>1</v>
+      </c>
       <c r="E87" s="49"/>
       <c r="F87" s="20"/>
       <c r="G87" s="13" t="str">
@@ -9909,9 +9914,11 @@
       <c r="H87" s="40"/>
       <c r="I87" s="49"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="48">
+        <v>45160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="41"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -9927,7 +9934,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="41"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -9943,7 +9950,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="41"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -9959,7 +9966,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="41"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -9975,7 +9982,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="41"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -9991,7 +9998,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="41"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -10007,7 +10014,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="41"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -10023,7 +10030,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="41"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -10039,7 +10046,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="41"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -10055,7 +10062,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="41"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -10071,7 +10078,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="41"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -10087,7 +10094,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="41"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -10103,7 +10110,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="41"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -10119,7 +10126,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="41"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -10135,7 +10142,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="41"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -10151,7 +10158,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="41"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -10167,7 +10174,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="41"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -10183,7 +10190,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="41"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -10199,7 +10206,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="41"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -10215,7 +10222,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="41"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -10231,7 +10238,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="41"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -10247,7 +10254,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="41"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -10263,7 +10270,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="41"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -10279,7 +10286,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="41"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -10295,7 +10302,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="41"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -10311,7 +10318,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="41"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -10327,7 +10334,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="41"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -10343,7 +10350,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="41"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -10359,7 +10366,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="41"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -10375,7 +10382,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="41"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -10391,7 +10398,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="41"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -10407,7 +10414,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="41"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -10423,7 +10430,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="41"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -10439,7 +10446,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="41"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -10455,7 +10462,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="41"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -10471,7 +10478,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="41"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -10487,7 +10494,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="41"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -10503,7 +10510,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="41"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -10519,7 +10526,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="41"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -10535,7 +10542,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="41"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -10551,7 +10558,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="41"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -10567,7 +10574,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="41"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -10583,7 +10590,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -10599,7 +10606,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="41"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -10615,7 +10622,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="41"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -10631,7 +10638,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="41"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -10647,7 +10654,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="41"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -10663,7 +10670,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="41"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -10679,7 +10686,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="41"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -10695,7 +10702,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="41"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -10711,7 +10718,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="41"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -10727,7 +10734,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="41"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -10743,7 +10750,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="41"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -10759,7 +10766,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="41"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -10775,7 +10782,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="41"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -10791,7 +10798,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="41"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -10807,7 +10814,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="41"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -10823,7 +10830,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="41"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -10839,7 +10846,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="41"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -10855,7 +10862,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="41"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -10871,7 +10878,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="41"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -10887,7 +10894,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="41"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -10903,7 +10910,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="41"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -10919,7 +10926,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="41"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -10935,7 +10942,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="41"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -10951,7 +10958,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="41"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -10967,7 +10974,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="41"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -10983,7 +10990,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="41"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -10999,7 +11006,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="41"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -11015,7 +11022,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="41"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -11031,7 +11038,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="41"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -11047,7 +11054,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="41"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -11063,7 +11070,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="41"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -11079,7 +11086,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="41"/>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -11095,7 +11102,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="41"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -11111,7 +11118,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="41"/>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -11127,7 +11134,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="41"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -11143,7 +11150,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="41"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -11159,7 +11166,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="41"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -11175,7 +11182,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="41"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -11191,7 +11198,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="41"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -11207,7 +11214,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="41"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -11223,7 +11230,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="41"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -11239,7 +11246,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="41"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -11255,7 +11262,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="41"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -11271,7 +11278,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="41"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -11287,7 +11294,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="41"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -11303,7 +11310,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="41"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -11319,7 +11326,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="41"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -11335,7 +11342,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="41"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -11351,7 +11358,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="41"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -11367,7 +11374,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="41"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -11383,7 +11390,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="41"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -11399,7 +11406,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="41"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -11415,7 +11422,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="41"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -11431,7 +11438,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="41"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -11447,7 +11454,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="41"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -11463,7 +11470,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="41"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -11479,7 +11486,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="41"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -11495,7 +11502,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="41"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -11511,7 +11518,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="41"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -11527,7 +11534,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="41"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -11543,7 +11550,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="41"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -11559,7 +11566,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="41"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -11575,7 +11582,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="41"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -11591,7 +11598,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="41"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -11607,7 +11614,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="41"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -11623,7 +11630,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="41"/>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -11639,7 +11646,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="41"/>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -11655,7 +11662,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="41"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -11671,7 +11678,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="41"/>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -11687,7 +11694,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="41"/>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -11703,7 +11710,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="42"/>
       <c r="B200" s="15"/>
       <c r="C200" s="43"/>
@@ -11721,23 +11728,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11760,28 +11767,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="38" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="38" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -11794,7 +11801,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11823,7 +11830,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>66.042000000000002</v>
       </c>
@@ -11847,7 +11854,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0</v>
@@ -11862,10 +11869,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>100</v>
       </c>
@@ -11888,7 +11895,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
         <v>142.5</v>
@@ -11918,7 +11925,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="38">
         <v>2</v>
       </c>
@@ -11944,7 +11951,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="38">
         <v>3</v>
       </c>
@@ -11970,7 +11977,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="38">
         <v>4</v>
       </c>
@@ -11996,7 +12003,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="38">
         <v>5</v>
       </c>
@@ -12022,7 +12029,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="38">
         <v>6</v>
       </c>
@@ -12048,7 +12055,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="38">
         <v>7</v>
       </c>
@@ -12074,7 +12081,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="38">
         <v>8</v>
       </c>
@@ -12100,7 +12107,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="38">
         <v>9</v>
       </c>
@@ -12120,7 +12127,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="38">
         <v>10</v>
       </c>
@@ -12140,7 +12147,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="38">
         <v>11</v>
       </c>
@@ -12160,7 +12167,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="38">
         <v>12</v>
       </c>
@@ -12181,7 +12188,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="38">
         <v>13</v>
       </c>
@@ -12202,7 +12209,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="38">
         <v>14</v>
       </c>
@@ -12223,7 +12230,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="38">
         <v>15</v>
       </c>
@@ -12244,7 +12251,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="38">
         <v>16</v>
       </c>
@@ -12265,7 +12272,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="38">
         <v>17</v>
       </c>
@@ -12286,7 +12293,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="38">
         <v>18</v>
       </c>
@@ -12307,7 +12314,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="38">
         <v>19</v>
       </c>
@@ -12328,7 +12335,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="38">
         <v>20</v>
       </c>
@@ -12349,7 +12356,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="38">
         <v>21</v>
       </c>
@@ -12370,7 +12377,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="38">
         <v>22</v>
       </c>
@@ -12391,7 +12398,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="38">
         <v>23</v>
       </c>
@@ -12412,7 +12419,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="38">
         <v>24</v>
       </c>
@@ -12433,7 +12440,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="38">
         <v>25</v>
       </c>
@@ -12454,7 +12461,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="38">
         <v>26</v>
       </c>
@@ -12475,7 +12482,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="38">
         <v>27</v>
       </c>
@@ -12496,7 +12503,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="38">
         <v>28</v>
       </c>
@@ -12517,7 +12524,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="38">
         <v>29</v>
       </c>
@@ -12538,7 +12545,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="38">
         <v>30</v>
       </c>
@@ -12559,7 +12566,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="38">
         <v>31</v>
       </c>
@@ -12580,7 +12587,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="38">
         <v>32</v>
       </c>
@@ -12589,7 +12596,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="38">
         <v>33</v>
       </c>
@@ -12598,7 +12605,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="38">
         <v>34</v>
       </c>
@@ -12607,7 +12614,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="38">
         <v>35</v>
       </c>
@@ -12616,7 +12623,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="38">
         <v>36</v>
       </c>
@@ -12625,7 +12632,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="38">
         <v>37</v>
       </c>
@@ -12634,7 +12641,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="38">
         <v>38</v>
       </c>
@@ -12643,7 +12650,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="38">
         <v>39</v>
       </c>
@@ -12652,7 +12659,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="38">
         <v>40</v>
       </c>
@@ -12661,7 +12668,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="38">
         <v>41</v>
       </c>
@@ -12670,7 +12677,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="38">
         <v>42</v>
       </c>
@@ -12679,7 +12686,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="38">
         <v>43</v>
       </c>
@@ -12688,7 +12695,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="38">
         <v>44</v>
       </c>
@@ -12697,7 +12704,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="38">
         <v>45</v>
       </c>
@@ -12706,7 +12713,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="38">
         <v>46</v>
       </c>
@@ -12715,7 +12722,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="38">
         <v>47</v>
       </c>
@@ -12724,7 +12731,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="38">
         <v>48</v>
       </c>
@@ -12733,7 +12740,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="38">
         <v>49</v>
       </c>
@@ -12742,7 +12749,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="38">
         <v>50</v>
       </c>
@@ -12751,7 +12758,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="38">
         <v>51</v>
       </c>
@@ -12760,7 +12767,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="38">
         <v>52</v>
       </c>
@@ -12769,7 +12776,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="38">
         <v>53</v>
       </c>
@@ -12778,7 +12785,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="38">
         <v>54</v>
       </c>
@@ -12787,7 +12794,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="38">
         <v>55</v>
       </c>
@@ -12796,7 +12803,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="38">
         <v>56</v>
       </c>
@@ -12805,7 +12812,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="38">
         <v>57</v>
       </c>
@@ -12814,7 +12821,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="38">
         <v>58</v>
       </c>
@@ -12823,7 +12830,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="38">
         <v>59</v>
       </c>
@@ -12832,7 +12839,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="38">
         <v>60</v>
       </c>
@@ -12841,7 +12848,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/DIMAANO, LEOVIGILDA ANGCAYA.xlsx
+++ b/DIMAANO, LEOVIGILDA ANGCAYA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="109">
   <si>
     <t>PERIOD</t>
   </si>
@@ -342,6 +342,30 @@
   </si>
   <si>
     <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>SPL(1-0-0)</t>
+  </si>
+  <si>
+    <t>8/12,14/2023</t>
+  </si>
+  <si>
+    <t>8/31 - 9/1/2023</t>
+  </si>
+  <si>
+    <t>9/21,22/2023</t>
+  </si>
+  <si>
+    <t>9/15,18/2023</t>
+  </si>
+  <si>
+    <t>9/26,28,29/2023</t>
+  </si>
+  <si>
+    <t>10/3,5,6/2023</t>
+  </si>
+  <si>
+    <t>10/9,10/2023</t>
   </si>
 </sst>
 </file>
@@ -3080,9 +3104,9 @@
   <dimension ref="A2:K269"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3585" topLeftCell="A78" activePane="bottomLeft"/>
+      <pane ySplit="3585" topLeftCell="A69" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
+      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3241,7 +3265,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>58.75</v>
+        <v>61.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3251,7 +3275,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>83.75</v>
+        <v>86.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4777,13 +4801,15 @@
         <v>45169</v>
       </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="40"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="40"/>
       <c r="I83" s="9"/>
@@ -4795,13 +4821,15 @@
         <v>45199</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="40"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="40"/>
       <c r="I84" s="9"/>
@@ -7986,9 +8014,9 @@
   <dimension ref="A2:K200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A73" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="F92" sqref="F92"/>
+      <selection pane="bottomLeft" activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8147,7 +8175,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>19.042000000000002</v>
+        <v>11.042000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -8157,7 +8185,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -9920,7 +9948,9 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="41"/>
-      <c r="B88" s="20"/>
+      <c r="B88" s="20" t="s">
+        <v>101</v>
+      </c>
       <c r="C88" s="13"/>
       <c r="D88" s="40"/>
       <c r="E88" s="49"/>
@@ -9932,13 +9962,19 @@
       <c r="H88" s="40"/>
       <c r="I88" s="49"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20"/>
+      <c r="K88" s="48">
+        <v>45159</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="41"/>
-      <c r="B89" s="20"/>
+      <c r="B89" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C89" s="13"/>
-      <c r="D89" s="40"/>
+      <c r="D89" s="40">
+        <v>2</v>
+      </c>
       <c r="E89" s="49"/>
       <c r="F89" s="20"/>
       <c r="G89" s="13" t="str">
@@ -9948,13 +9984,19 @@
       <c r="H89" s="40"/>
       <c r="I89" s="49"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20"/>
+      <c r="K89" s="20" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="41"/>
-      <c r="B90" s="20"/>
+      <c r="B90" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C90" s="13"/>
-      <c r="D90" s="40"/>
+      <c r="D90" s="40">
+        <v>2</v>
+      </c>
       <c r="E90" s="49"/>
       <c r="F90" s="20"/>
       <c r="G90" s="13" t="str">
@@ -9964,13 +10006,21 @@
       <c r="H90" s="40"/>
       <c r="I90" s="49"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
+      <c r="K90" s="20" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="41"/>
-      <c r="B91" s="20"/>
+      <c r="A91" s="41">
+        <v>45170</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C91" s="13"/>
-      <c r="D91" s="40"/>
+      <c r="D91" s="40">
+        <v>2</v>
+      </c>
       <c r="E91" s="49"/>
       <c r="F91" s="20"/>
       <c r="G91" s="13" t="str">
@@ -9980,11 +10030,15 @@
       <c r="H91" s="40"/>
       <c r="I91" s="49"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
+      <c r="K91" s="20" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="41"/>
-      <c r="B92" s="20"/>
+      <c r="B92" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C92" s="13"/>
       <c r="D92" s="40"/>
       <c r="E92" s="49"/>
@@ -9993,14 +10047,20 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H92" s="40"/>
+      <c r="H92" s="40">
+        <v>2</v>
+      </c>
       <c r="I92" s="49"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20"/>
+      <c r="K92" s="20" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="41"/>
-      <c r="B93" s="20"/>
+      <c r="B93" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C93" s="13"/>
       <c r="D93" s="40"/>
       <c r="E93" s="49"/>
@@ -10009,14 +10069,22 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H93" s="40"/>
+      <c r="H93" s="40">
+        <v>3</v>
+      </c>
       <c r="I93" s="49"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="20"/>
+      <c r="K93" s="20" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="41"/>
-      <c r="B94" s="20"/>
+      <c r="A94" s="41">
+        <v>45200</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C94" s="13"/>
       <c r="D94" s="40"/>
       <c r="E94" s="49"/>
@@ -10025,16 +10093,24 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H94" s="40"/>
+      <c r="H94" s="40">
+        <v>3</v>
+      </c>
       <c r="I94" s="49"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="20"/>
+      <c r="K94" s="20" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="41"/>
-      <c r="B95" s="20"/>
+      <c r="B95" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C95" s="13"/>
-      <c r="D95" s="40"/>
+      <c r="D95" s="40">
+        <v>2</v>
+      </c>
       <c r="E95" s="49"/>
       <c r="F95" s="20"/>
       <c r="G95" s="13" t="str">
@@ -10044,7 +10120,9 @@
       <c r="H95" s="40"/>
       <c r="I95" s="49"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
+      <c r="K95" s="20" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="41"/>
@@ -11898,7 +11976,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>142.5</v>
+        <v>147.5</v>
       </c>
       <c r="C7" s="38">
         <v>1</v>
